--- a/datacovidhn/FARMACIAS_HN.xlsx
+++ b/datacovidhn/FARMACIAS_HN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22904"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="8_{916CAA4F-0C4B-41B0-9C01-872BC023B4EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{15344633-F86A-4A39-87F2-70BA326B4232}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="8_{916CAA4F-0C4B-41B0-9C01-872BC023B4EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{41ADEA5A-6120-48CF-8775-8582F2C175E3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2438" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2438" uniqueCount="204">
   <si>
     <t>OBJECTID_1</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>HND-0318</t>
+  </si>
+  <si>
+    <t>Centro Medico El Carmen</t>
   </si>
   <si>
     <t>04</t>
@@ -1623,8 +1626,8 @@
   <dimension ref="A1:W162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="N144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X147" sqref="X147"/>
+      <pane ySplit="1" topLeftCell="Q17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -3211,13 +3214,13 @@
         <v>35</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="V23" s="2">
-        <v>14.7265</v>
+        <v>14.599460000000001</v>
       </c>
       <c r="W23" s="2">
-        <v>-88.420100000000005</v>
+        <v>-87.843118000000004</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3305,10 +3308,10 @@
         <v>4</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>27</v>
@@ -3317,10 +3320,10 @@
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>30</v>
@@ -3329,16 +3332,16 @@
         <v>1</v>
       </c>
       <c r="N25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="O25" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="P25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>34</v>
@@ -3373,10 +3376,10 @@
         <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>27</v>
@@ -3385,10 +3388,10 @@
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>30</v>
@@ -3397,16 +3400,16 @@
         <v>1</v>
       </c>
       <c r="N26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="O26" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="P26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R26" s="1" t="s">
         <v>34</v>
@@ -3441,10 +3444,10 @@
         <v>4</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>27</v>
@@ -3453,10 +3456,10 @@
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>30</v>
@@ -3465,16 +3468,16 @@
         <v>1</v>
       </c>
       <c r="N27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="O27" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="P27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>34</v>
@@ -3509,10 +3512,10 @@
         <v>4</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>27</v>
@@ -3521,10 +3524,10 @@
         <v>2</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>30</v>
@@ -3533,16 +3536,16 @@
         <v>1</v>
       </c>
       <c r="N28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="O28" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="P28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R28" s="1" t="s">
         <v>34</v>
@@ -3551,7 +3554,7 @@
         <v>35</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V28" s="2">
         <v>14.434699999999999</v>
@@ -3577,10 +3580,10 @@
         <v>4</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>27</v>
@@ -3589,10 +3592,10 @@
         <v>4</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>30</v>
@@ -3601,16 +3604,16 @@
         <v>1</v>
       </c>
       <c r="N29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O29" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="P29" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>34</v>
@@ -3619,7 +3622,7 @@
         <v>35</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V29" s="2">
         <v>14.4351</v>
@@ -3645,10 +3648,10 @@
         <v>4</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>27</v>
@@ -3657,10 +3660,10 @@
         <v>13</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>30</v>
@@ -3669,16 +3672,16 @@
         <v>1</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R30" s="1" t="s">
         <v>34</v>
@@ -3713,10 +3716,10 @@
         <v>5</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>27</v>
@@ -3725,10 +3728,10 @@
         <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>30</v>
@@ -3737,16 +3740,16 @@
         <v>1</v>
       </c>
       <c r="N31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O31" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O31" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P31" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>34</v>
@@ -3781,10 +3784,10 @@
         <v>5</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>27</v>
@@ -3793,10 +3796,10 @@
         <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>30</v>
@@ -3805,16 +3808,16 @@
         <v>1</v>
       </c>
       <c r="N32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O32" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R32" s="1" t="s">
         <v>34</v>
@@ -3849,10 +3852,10 @@
         <v>5</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>27</v>
@@ -3861,10 +3864,10 @@
         <v>1</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>30</v>
@@ -3873,16 +3876,16 @@
         <v>1</v>
       </c>
       <c r="N33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O33" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O33" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R33" s="1" t="s">
         <v>34</v>
@@ -3891,7 +3894,7 @@
         <v>35</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="V33" s="2">
         <v>14.435600000000001</v>
@@ -3917,10 +3920,10 @@
         <v>5</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>27</v>
@@ -3929,10 +3932,10 @@
         <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>30</v>
@@ -3941,16 +3944,16 @@
         <v>1</v>
       </c>
       <c r="N34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O34" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O34" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R34" s="1" t="s">
         <v>34</v>
@@ -3985,10 +3988,10 @@
         <v>5</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>27</v>
@@ -3997,10 +4000,10 @@
         <v>1</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>30</v>
@@ -4009,16 +4012,16 @@
         <v>1</v>
       </c>
       <c r="N35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O35" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O35" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P35" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R35" s="1" t="s">
         <v>34</v>
@@ -4027,7 +4030,7 @@
         <v>35</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="V35" s="2">
         <v>14.436</v>
@@ -4053,10 +4056,10 @@
         <v>5</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>27</v>
@@ -4065,10 +4068,10 @@
         <v>1</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>30</v>
@@ -4077,16 +4080,16 @@
         <v>1</v>
       </c>
       <c r="N36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O36" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O36" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P36" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R36" s="1" t="s">
         <v>34</v>
@@ -4095,7 +4098,7 @@
         <v>35</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V36" s="2">
         <v>14.436299999999999</v>
@@ -4121,10 +4124,10 @@
         <v>5</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>27</v>
@@ -4133,10 +4136,10 @@
         <v>1</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>30</v>
@@ -4145,16 +4148,16 @@
         <v>1</v>
       </c>
       <c r="N37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O37" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O37" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P37" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R37" s="1" t="s">
         <v>34</v>
@@ -4163,7 +4166,7 @@
         <v>35</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V37" s="2">
         <v>14.4368</v>
@@ -4189,10 +4192,10 @@
         <v>5</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>27</v>
@@ -4201,10 +4204,10 @@
         <v>1</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>30</v>
@@ -4213,16 +4216,16 @@
         <v>1</v>
       </c>
       <c r="N38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O38" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O38" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P38" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R38" s="1" t="s">
         <v>34</v>
@@ -4257,10 +4260,10 @@
         <v>5</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>27</v>
@@ -4269,10 +4272,10 @@
         <v>1</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>30</v>
@@ -4281,16 +4284,16 @@
         <v>1</v>
       </c>
       <c r="N39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O39" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O39" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P39" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R39" s="1" t="s">
         <v>34</v>
@@ -4325,10 +4328,10 @@
         <v>5</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>27</v>
@@ -4337,10 +4340,10 @@
         <v>1</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>30</v>
@@ -4349,16 +4352,16 @@
         <v>1</v>
       </c>
       <c r="N40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O40" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O40" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P40" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R40" s="1" t="s">
         <v>34</v>
@@ -4393,10 +4396,10 @@
         <v>5</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>27</v>
@@ -4405,10 +4408,10 @@
         <v>1</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>30</v>
@@ -4417,16 +4420,16 @@
         <v>1</v>
       </c>
       <c r="N41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O41" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O41" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P41" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R41" s="1" t="s">
         <v>34</v>
@@ -4461,10 +4464,10 @@
         <v>5</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>27</v>
@@ -4473,10 +4476,10 @@
         <v>1</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>30</v>
@@ -4485,16 +4488,16 @@
         <v>1</v>
       </c>
       <c r="N42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O42" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O42" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P42" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R42" s="1" t="s">
         <v>34</v>
@@ -4529,10 +4532,10 @@
         <v>5</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>27</v>
@@ -4541,10 +4544,10 @@
         <v>1</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>30</v>
@@ -4553,16 +4556,16 @@
         <v>1</v>
       </c>
       <c r="N43" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O43" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P43" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R43" s="1" t="s">
         <v>34</v>
@@ -4571,7 +4574,7 @@
         <v>35</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V43" s="2">
         <v>14.438499999999999</v>
@@ -4597,10 +4600,10 @@
         <v>5</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>27</v>
@@ -4609,10 +4612,10 @@
         <v>1</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>30</v>
@@ -4621,16 +4624,16 @@
         <v>1</v>
       </c>
       <c r="N44" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O44" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O44" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P44" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R44" s="1" t="s">
         <v>34</v>
@@ -4639,7 +4642,7 @@
         <v>35</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="V44" s="2">
         <v>14.3742</v>
@@ -4665,10 +4668,10 @@
         <v>5</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>27</v>
@@ -4677,10 +4680,10 @@
         <v>1</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>30</v>
@@ -4689,16 +4692,16 @@
         <v>1</v>
       </c>
       <c r="N45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O45" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O45" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P45" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R45" s="1" t="s">
         <v>34</v>
@@ -4707,7 +4710,7 @@
         <v>35</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="V45" s="2">
         <v>14.3748</v>
@@ -4733,10 +4736,10 @@
         <v>5</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>27</v>
@@ -4745,10 +4748,10 @@
         <v>1</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>30</v>
@@ -4757,16 +4760,16 @@
         <v>1</v>
       </c>
       <c r="N46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O46" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O46" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P46" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R46" s="1" t="s">
         <v>34</v>
@@ -4801,10 +4804,10 @@
         <v>5</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>27</v>
@@ -4813,10 +4816,10 @@
         <v>1</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>30</v>
@@ -4825,16 +4828,16 @@
         <v>1</v>
       </c>
       <c r="N47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O47" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O47" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P47" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R47" s="1" t="s">
         <v>34</v>
@@ -4843,7 +4846,7 @@
         <v>35</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V47" s="2">
         <v>14.3788</v>
@@ -4869,10 +4872,10 @@
         <v>5</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>27</v>
@@ -4881,10 +4884,10 @@
         <v>1</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>30</v>
@@ -4893,16 +4896,16 @@
         <v>1</v>
       </c>
       <c r="N48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O48" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O48" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P48" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R48" s="1" t="s">
         <v>34</v>
@@ -4937,10 +4940,10 @@
         <v>5</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>27</v>
@@ -4949,10 +4952,10 @@
         <v>1</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>30</v>
@@ -4961,16 +4964,16 @@
         <v>1</v>
       </c>
       <c r="N49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O49" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O49" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P49" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R49" s="1" t="s">
         <v>34</v>
@@ -4979,7 +4982,7 @@
         <v>35</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V49" s="2">
         <v>14.4985</v>
@@ -5005,10 +5008,10 @@
         <v>5</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>27</v>
@@ -5017,10 +5020,10 @@
         <v>1</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>30</v>
@@ -5029,16 +5032,16 @@
         <v>1</v>
       </c>
       <c r="N50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O50" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O50" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P50" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R50" s="1" t="s">
         <v>34</v>
@@ -5047,7 +5050,7 @@
         <v>35</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="V50" s="2">
         <v>14.5349</v>
@@ -5073,10 +5076,10 @@
         <v>5</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>27</v>
@@ -5085,10 +5088,10 @@
         <v>1</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>30</v>
@@ -5097,16 +5100,16 @@
         <v>1</v>
       </c>
       <c r="N51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O51" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O51" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P51" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R51" s="1" t="s">
         <v>34</v>
@@ -5141,10 +5144,10 @@
         <v>5</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>27</v>
@@ -5153,10 +5156,10 @@
         <v>1</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>30</v>
@@ -5165,16 +5168,16 @@
         <v>1</v>
       </c>
       <c r="N52" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O52" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O52" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P52" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R52" s="1" t="s">
         <v>34</v>
@@ -5209,10 +5212,10 @@
         <v>5</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>27</v>
@@ -5221,10 +5224,10 @@
         <v>1</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>30</v>
@@ -5233,16 +5236,16 @@
         <v>1</v>
       </c>
       <c r="N53" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O53" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O53" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P53" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R53" s="1" t="s">
         <v>34</v>
@@ -5277,10 +5280,10 @@
         <v>5</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>27</v>
@@ -5289,10 +5292,10 @@
         <v>1</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>30</v>
@@ -5301,16 +5304,16 @@
         <v>1</v>
       </c>
       <c r="N54" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O54" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O54" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P54" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R54" s="1" t="s">
         <v>34</v>
@@ -5345,10 +5348,10 @@
         <v>5</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>27</v>
@@ -5357,10 +5360,10 @@
         <v>1</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>30</v>
@@ -5369,16 +5372,16 @@
         <v>1</v>
       </c>
       <c r="N55" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O55" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O55" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P55" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R55" s="1" t="s">
         <v>34</v>
@@ -5413,10 +5416,10 @@
         <v>5</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>27</v>
@@ -5425,10 +5428,10 @@
         <v>1</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>30</v>
@@ -5437,16 +5440,16 @@
         <v>1</v>
       </c>
       <c r="N56" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O56" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O56" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P56" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R56" s="1" t="s">
         <v>34</v>
@@ -5455,7 +5458,7 @@
         <v>35</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="V56" s="2">
         <v>14.664999999999999</v>
@@ -5481,10 +5484,10 @@
         <v>5</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>27</v>
@@ -5493,10 +5496,10 @@
         <v>1</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>30</v>
@@ -5505,16 +5508,16 @@
         <v>1</v>
       </c>
       <c r="N57" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O57" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O57" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P57" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R57" s="1" t="s">
         <v>34</v>
@@ -5549,10 +5552,10 @@
         <v>5</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>27</v>
@@ -5561,10 +5564,10 @@
         <v>1</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>30</v>
@@ -5573,16 +5576,16 @@
         <v>1</v>
       </c>
       <c r="N58" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O58" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O58" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P58" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R58" s="1" t="s">
         <v>34</v>
@@ -5617,10 +5620,10 @@
         <v>5</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>27</v>
@@ -5629,10 +5632,10 @@
         <v>1</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>30</v>
@@ -5641,16 +5644,16 @@
         <v>1</v>
       </c>
       <c r="N59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O59" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O59" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P59" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R59" s="1" t="s">
         <v>34</v>
@@ -5685,10 +5688,10 @@
         <v>5</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>27</v>
@@ -5697,10 +5700,10 @@
         <v>1</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>30</v>
@@ -5709,16 +5712,16 @@
         <v>1</v>
       </c>
       <c r="N60" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O60" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O60" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P60" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R60" s="1" t="s">
         <v>34</v>
@@ -5753,10 +5756,10 @@
         <v>5</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>27</v>
@@ -5765,10 +5768,10 @@
         <v>1</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>30</v>
@@ -5777,16 +5780,16 @@
         <v>1</v>
       </c>
       <c r="N61" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O61" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O61" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P61" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R61" s="1" t="s">
         <v>34</v>
@@ -5821,10 +5824,10 @@
         <v>5</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>27</v>
@@ -5833,10 +5836,10 @@
         <v>1</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>30</v>
@@ -5845,16 +5848,16 @@
         <v>1</v>
       </c>
       <c r="N62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O62" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O62" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P62" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R62" s="1" t="s">
         <v>34</v>
@@ -5889,10 +5892,10 @@
         <v>5</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>27</v>
@@ -5901,10 +5904,10 @@
         <v>1</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>30</v>
@@ -5913,16 +5916,16 @@
         <v>1</v>
       </c>
       <c r="N63" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O63" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O63" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P63" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R63" s="1" t="s">
         <v>34</v>
@@ -5957,10 +5960,10 @@
         <v>5</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>27</v>
@@ -5969,10 +5972,10 @@
         <v>1</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>30</v>
@@ -5981,16 +5984,16 @@
         <v>1</v>
       </c>
       <c r="N64" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O64" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O64" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="P64" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R64" s="1" t="s">
         <v>34</v>
@@ -6025,10 +6028,10 @@
         <v>5</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>27</v>
@@ -6037,10 +6040,10 @@
         <v>2</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>30</v>
@@ -6049,16 +6052,16 @@
         <v>1</v>
       </c>
       <c r="N65" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O65" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O65" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="P65" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R65" s="1" t="s">
         <v>34</v>
@@ -6093,10 +6096,10 @@
         <v>5</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>27</v>
@@ -6105,10 +6108,10 @@
         <v>11</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>30</v>
@@ -6117,16 +6120,16 @@
         <v>1</v>
       </c>
       <c r="N66" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O66" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="O66" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="P66" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="R66" s="1" t="s">
         <v>34</v>
@@ -6161,10 +6164,10 @@
         <v>5</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>27</v>
@@ -6173,10 +6176,10 @@
         <v>12</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>30</v>
@@ -6185,16 +6188,16 @@
         <v>1</v>
       </c>
       <c r="N67" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O67" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="O67" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="P67" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R67" s="1" t="s">
         <v>34</v>
@@ -6229,10 +6232,10 @@
         <v>5</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>27</v>
@@ -6241,10 +6244,10 @@
         <v>12</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>30</v>
@@ -6253,16 +6256,16 @@
         <v>1</v>
       </c>
       <c r="N68" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O68" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="O68" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="P68" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R68" s="1" t="s">
         <v>34</v>
@@ -6297,10 +6300,10 @@
         <v>5</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>27</v>
@@ -6309,10 +6312,10 @@
         <v>12</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>30</v>
@@ -6321,16 +6324,16 @@
         <v>1</v>
       </c>
       <c r="N69" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O69" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="O69" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="P69" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R69" s="1" t="s">
         <v>34</v>
@@ -6365,10 +6368,10 @@
         <v>5</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>27</v>
@@ -6377,10 +6380,10 @@
         <v>12</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>30</v>
@@ -6389,16 +6392,16 @@
         <v>1</v>
       </c>
       <c r="N70" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O70" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="O70" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="P70" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R70" s="1" t="s">
         <v>34</v>
@@ -6407,7 +6410,7 @@
         <v>35</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="V70" s="2">
         <v>15.030799999999999</v>
@@ -6433,10 +6436,10 @@
         <v>6</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>27</v>
@@ -6445,11 +6448,11 @@
         <v>1</v>
       </c>
       <c r="J71" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K71" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K71" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="L71" s="1" t="s">
         <v>30</v>
       </c>
@@ -6457,16 +6460,16 @@
         <v>1</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P71" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R71" s="1" t="s">
         <v>34</v>
@@ -6501,10 +6504,10 @@
         <v>6</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>27</v>
@@ -6513,11 +6516,11 @@
         <v>1</v>
       </c>
       <c r="J72" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K72" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K72" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="L72" s="1" t="s">
         <v>30</v>
       </c>
@@ -6525,16 +6528,16 @@
         <v>1</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P72" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R72" s="1" t="s">
         <v>34</v>
@@ -6569,10 +6572,10 @@
         <v>6</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>27</v>
@@ -6581,10 +6584,10 @@
         <v>6</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>30</v>
@@ -6593,16 +6596,16 @@
         <v>3</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P73" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="R73" s="1" t="s">
         <v>34</v>
@@ -6611,7 +6614,7 @@
         <v>35</v>
       </c>
       <c r="U73" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="V73" s="2">
         <v>15.198499999999999</v>
@@ -6637,10 +6640,10 @@
         <v>8</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>27</v>
@@ -6649,10 +6652,10 @@
         <v>1</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>30</v>
@@ -6661,16 +6664,16 @@
         <v>1</v>
       </c>
       <c r="N74" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O74" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O74" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P74" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R74" s="1" t="s">
         <v>34</v>
@@ -6705,10 +6708,10 @@
         <v>8</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>27</v>
@@ -6717,10 +6720,10 @@
         <v>1</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>30</v>
@@ -6729,16 +6732,16 @@
         <v>1</v>
       </c>
       <c r="N75" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O75" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O75" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P75" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R75" s="1" t="s">
         <v>34</v>
@@ -6773,10 +6776,10 @@
         <v>8</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>27</v>
@@ -6785,10 +6788,10 @@
         <v>1</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>30</v>
@@ -6797,16 +6800,16 @@
         <v>1</v>
       </c>
       <c r="N76" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O76" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O76" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P76" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R76" s="1" t="s">
         <v>34</v>
@@ -6841,10 +6844,10 @@
         <v>8</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>27</v>
@@ -6853,10 +6856,10 @@
         <v>1</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>30</v>
@@ -6865,16 +6868,16 @@
         <v>1</v>
       </c>
       <c r="N77" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O77" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O77" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P77" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R77" s="1" t="s">
         <v>34</v>
@@ -6883,7 +6886,7 @@
         <v>35</v>
       </c>
       <c r="U77" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="V77" s="2">
         <v>14.9177</v>
@@ -6909,10 +6912,10 @@
         <v>8</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>27</v>
@@ -6921,10 +6924,10 @@
         <v>1</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>30</v>
@@ -6933,16 +6936,16 @@
         <v>1</v>
       </c>
       <c r="N78" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O78" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O78" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P78" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R78" s="1" t="s">
         <v>34</v>
@@ -6951,7 +6954,7 @@
         <v>35</v>
       </c>
       <c r="U78" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="V78" s="2">
         <v>14.920199999999999</v>
@@ -6977,10 +6980,10 @@
         <v>8</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>27</v>
@@ -6989,10 +6992,10 @@
         <v>1</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>30</v>
@@ -7001,16 +7004,16 @@
         <v>1</v>
       </c>
       <c r="N79" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O79" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O79" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P79" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R79" s="1" t="s">
         <v>34</v>
@@ -7045,10 +7048,10 @@
         <v>8</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>27</v>
@@ -7057,10 +7060,10 @@
         <v>1</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>30</v>
@@ -7069,16 +7072,16 @@
         <v>1</v>
       </c>
       <c r="N80" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O80" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O80" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P80" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R80" s="1" t="s">
         <v>34</v>
@@ -7087,7 +7090,7 @@
         <v>35</v>
       </c>
       <c r="U80" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="V80" s="2">
         <v>14.923299999999999</v>
@@ -7113,10 +7116,10 @@
         <v>8</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>27</v>
@@ -7125,10 +7128,10 @@
         <v>1</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>30</v>
@@ -7137,16 +7140,16 @@
         <v>1</v>
       </c>
       <c r="N81" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O81" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O81" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P81" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R81" s="1" t="s">
         <v>34</v>
@@ -7155,7 +7158,7 @@
         <v>35</v>
       </c>
       <c r="U81" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="V81" s="2">
         <v>14.927899999999999</v>
@@ -7181,10 +7184,10 @@
         <v>8</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>27</v>
@@ -7193,10 +7196,10 @@
         <v>1</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>30</v>
@@ -7205,16 +7208,16 @@
         <v>1</v>
       </c>
       <c r="N82" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O82" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O82" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P82" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R82" s="1" t="s">
         <v>34</v>
@@ -7223,7 +7226,7 @@
         <v>35</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="V82" s="2">
         <v>14.8439</v>
@@ -7249,10 +7252,10 @@
         <v>8</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>27</v>
@@ -7261,10 +7264,10 @@
         <v>1</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>30</v>
@@ -7273,16 +7276,16 @@
         <v>1</v>
       </c>
       <c r="N83" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O83" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O83" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P83" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R83" s="1" t="s">
         <v>34</v>
@@ -7317,10 +7320,10 @@
         <v>8</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>27</v>
@@ -7329,10 +7332,10 @@
         <v>1</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>30</v>
@@ -7341,16 +7344,16 @@
         <v>1</v>
       </c>
       <c r="N84" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O84" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O84" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P84" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R84" s="1" t="s">
         <v>34</v>
@@ -7359,7 +7362,7 @@
         <v>35</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="V84" s="2">
         <v>15.2738</v>
@@ -7385,10 +7388,10 @@
         <v>8</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>27</v>
@@ -7397,10 +7400,10 @@
         <v>1</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>30</v>
@@ -7409,16 +7412,16 @@
         <v>1</v>
       </c>
       <c r="N85" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O85" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O85" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P85" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R85" s="1" t="s">
         <v>34</v>
@@ -7453,10 +7456,10 @@
         <v>8</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>27</v>
@@ -7465,10 +7468,10 @@
         <v>1</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>30</v>
@@ -7477,16 +7480,16 @@
         <v>1</v>
       </c>
       <c r="N86" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O86" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O86" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P86" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R86" s="1" t="s">
         <v>34</v>
@@ -7495,7 +7498,7 @@
         <v>35</v>
       </c>
       <c r="U86" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="V86" s="2">
         <v>15.3123</v>
@@ -7521,10 +7524,10 @@
         <v>8</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>27</v>
@@ -7533,10 +7536,10 @@
         <v>1</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>30</v>
@@ -7545,16 +7548,16 @@
         <v>1</v>
       </c>
       <c r="N87" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O87" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O87" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P87" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q87" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R87" s="1" t="s">
         <v>34</v>
@@ -7563,7 +7566,7 @@
         <v>35</v>
       </c>
       <c r="U87" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="V87" s="2">
         <v>15.3133</v>
@@ -7589,10 +7592,10 @@
         <v>8</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>27</v>
@@ -7601,10 +7604,10 @@
         <v>1</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>30</v>
@@ -7613,16 +7616,16 @@
         <v>1</v>
       </c>
       <c r="N88" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O88" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O88" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P88" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q88" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R88" s="1" t="s">
         <v>34</v>
@@ -7631,7 +7634,7 @@
         <v>35</v>
       </c>
       <c r="U88" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V88" s="2">
         <v>15.314</v>
@@ -7657,10 +7660,10 @@
         <v>8</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>27</v>
@@ -7669,10 +7672,10 @@
         <v>1</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>30</v>
@@ -7681,16 +7684,16 @@
         <v>1</v>
       </c>
       <c r="N89" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O89" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O89" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P89" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q89" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R89" s="1" t="s">
         <v>34</v>
@@ -7699,7 +7702,7 @@
         <v>35</v>
       </c>
       <c r="U89" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="V89" s="2">
         <v>15.314299999999999</v>
@@ -7725,10 +7728,10 @@
         <v>8</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>27</v>
@@ -7737,10 +7740,10 @@
         <v>1</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>30</v>
@@ -7749,16 +7752,16 @@
         <v>1</v>
       </c>
       <c r="N90" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O90" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O90" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P90" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R90" s="1" t="s">
         <v>34</v>
@@ -7793,10 +7796,10 @@
         <v>8</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>27</v>
@@ -7805,10 +7808,10 @@
         <v>1</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>30</v>
@@ -7817,16 +7820,16 @@
         <v>1</v>
       </c>
       <c r="N91" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O91" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O91" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P91" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R91" s="1" t="s">
         <v>34</v>
@@ -7835,7 +7838,7 @@
         <v>35</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="V91" s="2">
         <v>14.8527</v>
@@ -7861,10 +7864,10 @@
         <v>8</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>27</v>
@@ -7873,10 +7876,10 @@
         <v>1</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>30</v>
@@ -7885,16 +7888,16 @@
         <v>1</v>
       </c>
       <c r="N92" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O92" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O92" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P92" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R92" s="1" t="s">
         <v>34</v>
@@ -7929,10 +7932,10 @@
         <v>8</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>27</v>
@@ -7941,10 +7944,10 @@
         <v>1</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>30</v>
@@ -7953,16 +7956,16 @@
         <v>1</v>
       </c>
       <c r="N93" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O93" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O93" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P93" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R93" s="1" t="s">
         <v>34</v>
@@ -7997,10 +8000,10 @@
         <v>8</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>27</v>
@@ -8009,10 +8012,10 @@
         <v>1</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>30</v>
@@ -8021,16 +8024,16 @@
         <v>1</v>
       </c>
       <c r="N94" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O94" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O94" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P94" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q94" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R94" s="1" t="s">
         <v>34</v>
@@ -8065,10 +8068,10 @@
         <v>8</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>27</v>
@@ -8077,10 +8080,10 @@
         <v>1</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>30</v>
@@ -8089,16 +8092,16 @@
         <v>1</v>
       </c>
       <c r="N95" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O95" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O95" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P95" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R95" s="1" t="s">
         <v>34</v>
@@ -8133,10 +8136,10 @@
         <v>8</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>27</v>
@@ -8145,10 +8148,10 @@
         <v>1</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>30</v>
@@ -8157,16 +8160,16 @@
         <v>1</v>
       </c>
       <c r="N96" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O96" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O96" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P96" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R96" s="1" t="s">
         <v>34</v>
@@ -8201,10 +8204,10 @@
         <v>8</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>27</v>
@@ -8213,10 +8216,10 @@
         <v>1</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>30</v>
@@ -8225,16 +8228,16 @@
         <v>1</v>
       </c>
       <c r="N97" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O97" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O97" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P97" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R97" s="1" t="s">
         <v>34</v>
@@ -8269,10 +8272,10 @@
         <v>8</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>27</v>
@@ -8281,10 +8284,10 @@
         <v>1</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L98" s="1" t="s">
         <v>30</v>
@@ -8293,16 +8296,16 @@
         <v>1</v>
       </c>
       <c r="N98" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O98" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O98" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P98" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R98" s="1" t="s">
         <v>34</v>
@@ -8337,10 +8340,10 @@
         <v>8</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>27</v>
@@ -8349,10 +8352,10 @@
         <v>1</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>30</v>
@@ -8361,16 +8364,16 @@
         <v>1</v>
       </c>
       <c r="N99" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O99" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O99" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P99" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R99" s="1" t="s">
         <v>34</v>
@@ -8405,10 +8408,10 @@
         <v>8</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>27</v>
@@ -8417,10 +8420,10 @@
         <v>1</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L100" s="1" t="s">
         <v>30</v>
@@ -8429,16 +8432,16 @@
         <v>1</v>
       </c>
       <c r="N100" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O100" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O100" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P100" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q100" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R100" s="1" t="s">
         <v>34</v>
@@ -8447,7 +8450,7 @@
         <v>35</v>
       </c>
       <c r="U100" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="V100" s="2">
         <v>13.532400000000001</v>
@@ -8473,10 +8476,10 @@
         <v>8</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>27</v>
@@ -8485,10 +8488,10 @@
         <v>1</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L101" s="1" t="s">
         <v>30</v>
@@ -8497,16 +8500,16 @@
         <v>1</v>
       </c>
       <c r="N101" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O101" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O101" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P101" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R101" s="1" t="s">
         <v>34</v>
@@ -8515,7 +8518,7 @@
         <v>35</v>
       </c>
       <c r="U101" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="V101" s="2">
         <v>13.5337</v>
@@ -8541,10 +8544,10 @@
         <v>8</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>27</v>
@@ -8553,10 +8556,10 @@
         <v>1</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L102" s="1" t="s">
         <v>30</v>
@@ -8565,16 +8568,16 @@
         <v>1</v>
       </c>
       <c r="N102" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O102" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O102" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P102" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q102" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R102" s="1" t="s">
         <v>34</v>
@@ -8583,7 +8586,7 @@
         <v>35</v>
       </c>
       <c r="U102" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="V102" s="2">
         <v>13.280799999999999</v>
@@ -8609,10 +8612,10 @@
         <v>8</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>27</v>
@@ -8621,10 +8624,10 @@
         <v>1</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L103" s="1" t="s">
         <v>30</v>
@@ -8633,16 +8636,16 @@
         <v>1</v>
       </c>
       <c r="N103" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O103" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O103" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P103" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q103" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R103" s="1" t="s">
         <v>34</v>
@@ -8651,7 +8654,7 @@
         <v>35</v>
       </c>
       <c r="U103" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="V103" s="2">
         <v>13.2742</v>
@@ -8677,10 +8680,10 @@
         <v>8</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>27</v>
@@ -8689,10 +8692,10 @@
         <v>1</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>30</v>
@@ -8701,16 +8704,16 @@
         <v>1</v>
       </c>
       <c r="N104" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O104" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O104" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P104" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R104" s="1" t="s">
         <v>34</v>
@@ -8719,7 +8722,7 @@
         <v>35</v>
       </c>
       <c r="U104" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="V104" s="2">
         <v>13.285</v>
@@ -8745,10 +8748,10 @@
         <v>8</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>27</v>
@@ -8757,10 +8760,10 @@
         <v>1</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L105" s="1" t="s">
         <v>30</v>
@@ -8769,16 +8772,16 @@
         <v>1</v>
       </c>
       <c r="N105" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O105" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O105" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P105" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R105" s="1" t="s">
         <v>34</v>
@@ -8787,7 +8790,7 @@
         <v>35</v>
       </c>
       <c r="U105" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="V105" s="2">
         <v>13.3597</v>
@@ -8813,10 +8816,10 @@
         <v>8</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>27</v>
@@ -8825,10 +8828,10 @@
         <v>1</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L106" s="1" t="s">
         <v>30</v>
@@ -8837,16 +8840,16 @@
         <v>1</v>
       </c>
       <c r="N106" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O106" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O106" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P106" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q106" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R106" s="1" t="s">
         <v>34</v>
@@ -8881,10 +8884,10 @@
         <v>8</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>27</v>
@@ -8893,10 +8896,10 @@
         <v>1</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L107" s="1" t="s">
         <v>30</v>
@@ -8905,16 +8908,16 @@
         <v>1</v>
       </c>
       <c r="N107" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O107" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O107" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P107" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q107" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R107" s="1" t="s">
         <v>34</v>
@@ -8923,7 +8926,7 @@
         <v>35</v>
       </c>
       <c r="U107" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="V107" s="2">
         <v>13.268700000000001</v>
@@ -8949,10 +8952,10 @@
         <v>8</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>27</v>
@@ -8961,10 +8964,10 @@
         <v>1</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L108" s="1" t="s">
         <v>30</v>
@@ -8973,16 +8976,16 @@
         <v>1</v>
       </c>
       <c r="N108" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O108" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O108" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P108" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q108" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R108" s="1" t="s">
         <v>34</v>
@@ -8991,7 +8994,7 @@
         <v>35</v>
       </c>
       <c r="U108" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="V108" s="2">
         <v>13.251200000000001</v>
@@ -9017,10 +9020,10 @@
         <v>8</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>27</v>
@@ -9029,10 +9032,10 @@
         <v>1</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L109" s="1" t="s">
         <v>30</v>
@@ -9041,16 +9044,16 @@
         <v>1</v>
       </c>
       <c r="N109" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O109" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O109" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P109" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q109" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R109" s="1" t="s">
         <v>34</v>
@@ -9059,7 +9062,7 @@
         <v>35</v>
       </c>
       <c r="U109" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="V109" s="2">
         <v>13.254</v>
@@ -9085,10 +9088,10 @@
         <v>8</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>27</v>
@@ -9097,10 +9100,10 @@
         <v>1</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L110" s="1" t="s">
         <v>30</v>
@@ -9109,16 +9112,16 @@
         <v>1</v>
       </c>
       <c r="N110" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O110" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O110" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P110" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q110" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R110" s="1" t="s">
         <v>34</v>
@@ -9153,10 +9156,10 @@
         <v>8</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>27</v>
@@ -9165,10 +9168,10 @@
         <v>1</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>30</v>
@@ -9177,16 +9180,16 @@
         <v>1</v>
       </c>
       <c r="N111" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O111" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O111" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P111" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q111" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R111" s="1" t="s">
         <v>34</v>
@@ -9221,10 +9224,10 @@
         <v>8</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>27</v>
@@ -9233,10 +9236,10 @@
         <v>1</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>30</v>
@@ -9245,16 +9248,16 @@
         <v>1</v>
       </c>
       <c r="N112" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O112" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O112" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P112" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q112" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R112" s="1" t="s">
         <v>34</v>
@@ -9289,10 +9292,10 @@
         <v>8</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>27</v>
@@ -9301,10 +9304,10 @@
         <v>1</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L113" s="1" t="s">
         <v>30</v>
@@ -9313,16 +9316,16 @@
         <v>1</v>
       </c>
       <c r="N113" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O113" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O113" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P113" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q113" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R113" s="1" t="s">
         <v>34</v>
@@ -9331,7 +9334,7 @@
         <v>35</v>
       </c>
       <c r="U113" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="V113" s="2">
         <v>13.596299999999999</v>
@@ -9357,10 +9360,10 @@
         <v>8</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>27</v>
@@ -9369,10 +9372,10 @@
         <v>1</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>30</v>
@@ -9381,16 +9384,16 @@
         <v>1</v>
       </c>
       <c r="N114" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O114" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O114" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P114" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q114" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R114" s="1" t="s">
         <v>34</v>
@@ -9425,10 +9428,10 @@
         <v>8</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>27</v>
@@ -9437,10 +9440,10 @@
         <v>1</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L115" s="1" t="s">
         <v>30</v>
@@ -9449,16 +9452,16 @@
         <v>1</v>
       </c>
       <c r="N115" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O115" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O115" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P115" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R115" s="1" t="s">
         <v>34</v>
@@ -9467,7 +9470,7 @@
         <v>35</v>
       </c>
       <c r="U115" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="V115" s="2">
         <v>13.4175</v>
@@ -9493,10 +9496,10 @@
         <v>8</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>27</v>
@@ -9505,10 +9508,10 @@
         <v>1</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L116" s="1" t="s">
         <v>30</v>
@@ -9517,16 +9520,16 @@
         <v>1</v>
       </c>
       <c r="N116" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O116" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O116" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P116" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R116" s="1" t="s">
         <v>34</v>
@@ -9561,10 +9564,10 @@
         <v>8</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>27</v>
@@ -9573,10 +9576,10 @@
         <v>1</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L117" s="1" t="s">
         <v>30</v>
@@ -9585,16 +9588,16 @@
         <v>1</v>
       </c>
       <c r="N117" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O117" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O117" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P117" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R117" s="1" t="s">
         <v>34</v>
@@ -9603,7 +9606,7 @@
         <v>35</v>
       </c>
       <c r="U117" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="V117" s="2">
         <v>13.4306</v>
@@ -9629,10 +9632,10 @@
         <v>8</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>27</v>
@@ -9641,10 +9644,10 @@
         <v>1</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>30</v>
@@ -9653,16 +9656,16 @@
         <v>1</v>
       </c>
       <c r="N118" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O118" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O118" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P118" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q118" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R118" s="1" t="s">
         <v>34</v>
@@ -9671,7 +9674,7 @@
         <v>35</v>
       </c>
       <c r="U118" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="V118" s="2">
         <v>13.4314</v>
@@ -9697,10 +9700,10 @@
         <v>8</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>27</v>
@@ -9709,10 +9712,10 @@
         <v>1</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L119" s="1" t="s">
         <v>30</v>
@@ -9721,16 +9724,16 @@
         <v>1</v>
       </c>
       <c r="N119" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O119" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O119" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P119" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q119" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R119" s="1" t="s">
         <v>34</v>
@@ -9739,7 +9742,7 @@
         <v>35</v>
       </c>
       <c r="U119" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="V119" s="2">
         <v>13.4329</v>
@@ -9765,10 +9768,10 @@
         <v>8</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>27</v>
@@ -9777,10 +9780,10 @@
         <v>1</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L120" s="1" t="s">
         <v>30</v>
@@ -9789,16 +9792,16 @@
         <v>1</v>
       </c>
       <c r="N120" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O120" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O120" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P120" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q120" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R120" s="1" t="s">
         <v>34</v>
@@ -9833,10 +9836,10 @@
         <v>8</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>27</v>
@@ -9845,10 +9848,10 @@
         <v>1</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L121" s="1" t="s">
         <v>30</v>
@@ -9857,16 +9860,16 @@
         <v>1</v>
       </c>
       <c r="N121" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O121" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O121" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P121" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q121" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R121" s="1" t="s">
         <v>34</v>
@@ -9901,10 +9904,10 @@
         <v>8</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>27</v>
@@ -9913,10 +9916,10 @@
         <v>1</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L122" s="1" t="s">
         <v>30</v>
@@ -9925,16 +9928,16 @@
         <v>1</v>
       </c>
       <c r="N122" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O122" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O122" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P122" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q122" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R122" s="1" t="s">
         <v>34</v>
@@ -9943,7 +9946,7 @@
         <v>35</v>
       </c>
       <c r="U122" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="V122" s="2">
         <v>13.439500000000001</v>
@@ -9969,10 +9972,10 @@
         <v>8</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>27</v>
@@ -9981,10 +9984,10 @@
         <v>1</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L123" s="1" t="s">
         <v>30</v>
@@ -9993,16 +9996,16 @@
         <v>1</v>
       </c>
       <c r="N123" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O123" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O123" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P123" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q123" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R123" s="1" t="s">
         <v>34</v>
@@ -10011,7 +10014,7 @@
         <v>35</v>
       </c>
       <c r="U123" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="V123" s="2">
         <v>13.4544</v>
@@ -10037,10 +10040,10 @@
         <v>8</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>27</v>
@@ -10049,10 +10052,10 @@
         <v>1</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L124" s="1" t="s">
         <v>30</v>
@@ -10061,16 +10064,16 @@
         <v>1</v>
       </c>
       <c r="N124" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O124" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O124" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P124" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q124" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R124" s="1" t="s">
         <v>34</v>
@@ -10105,10 +10108,10 @@
         <v>8</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>27</v>
@@ -10117,10 +10120,10 @@
         <v>1</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L125" s="1" t="s">
         <v>30</v>
@@ -10129,16 +10132,16 @@
         <v>1</v>
       </c>
       <c r="N125" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O125" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O125" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P125" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q125" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R125" s="1" t="s">
         <v>34</v>
@@ -10147,7 +10150,7 @@
         <v>35</v>
       </c>
       <c r="U125" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="V125" s="2">
         <v>15.132300000000001</v>
@@ -10173,10 +10176,10 @@
         <v>8</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>27</v>
@@ -10185,10 +10188,10 @@
         <v>1</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L126" s="1" t="s">
         <v>30</v>
@@ -10197,16 +10200,16 @@
         <v>1</v>
       </c>
       <c r="N126" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O126" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O126" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P126" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q126" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R126" s="1" t="s">
         <v>34</v>
@@ -10241,10 +10244,10 @@
         <v>8</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>27</v>
@@ -10253,10 +10256,10 @@
         <v>1</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L127" s="1" t="s">
         <v>30</v>
@@ -10265,16 +10268,16 @@
         <v>1</v>
       </c>
       <c r="N127" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O127" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O127" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P127" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q127" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R127" s="1" t="s">
         <v>34</v>
@@ -10309,10 +10312,10 @@
         <v>8</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>27</v>
@@ -10321,10 +10324,10 @@
         <v>1</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L128" s="1" t="s">
         <v>30</v>
@@ -10333,16 +10336,16 @@
         <v>1</v>
       </c>
       <c r="N128" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O128" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O128" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P128" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q128" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R128" s="1" t="s">
         <v>34</v>
@@ -10351,7 +10354,7 @@
         <v>35</v>
       </c>
       <c r="U128" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V128" s="2">
         <v>15.5343</v>
@@ -10377,10 +10380,10 @@
         <v>8</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>27</v>
@@ -10389,10 +10392,10 @@
         <v>1</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L129" s="1" t="s">
         <v>30</v>
@@ -10401,16 +10404,16 @@
         <v>1</v>
       </c>
       <c r="N129" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O129" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O129" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P129" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q129" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R129" s="1" t="s">
         <v>34</v>
@@ -10419,7 +10422,7 @@
         <v>35</v>
       </c>
       <c r="U129" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="V129" s="2">
         <v>15.5352</v>
@@ -10445,10 +10448,10 @@
         <v>8</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>27</v>
@@ -10457,10 +10460,10 @@
         <v>1</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L130" s="1" t="s">
         <v>30</v>
@@ -10469,16 +10472,16 @@
         <v>1</v>
       </c>
       <c r="N130" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O130" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O130" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P130" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q130" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R130" s="1" t="s">
         <v>34</v>
@@ -10487,7 +10490,7 @@
         <v>35</v>
       </c>
       <c r="U130" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V130" s="2">
         <v>15.536099999999999</v>
@@ -10513,10 +10516,10 @@
         <v>8</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>27</v>
@@ -10525,10 +10528,10 @@
         <v>1</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L131" s="1" t="s">
         <v>30</v>
@@ -10537,16 +10540,16 @@
         <v>1</v>
       </c>
       <c r="N131" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O131" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O131" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P131" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q131" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R131" s="1" t="s">
         <v>34</v>
@@ -10581,10 +10584,10 @@
         <v>8</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>27</v>
@@ -10593,10 +10596,10 @@
         <v>1</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L132" s="1" t="s">
         <v>30</v>
@@ -10605,16 +10608,16 @@
         <v>1</v>
       </c>
       <c r="N132" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O132" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O132" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P132" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q132" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R132" s="1" t="s">
         <v>34</v>
@@ -10623,7 +10626,7 @@
         <v>35</v>
       </c>
       <c r="U132" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V132" s="2">
         <v>15.543200000000001</v>
@@ -10649,10 +10652,10 @@
         <v>8</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>27</v>
@@ -10661,10 +10664,10 @@
         <v>1</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L133" s="1" t="s">
         <v>30</v>
@@ -10673,16 +10676,16 @@
         <v>1</v>
       </c>
       <c r="N133" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O133" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O133" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P133" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q133" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R133" s="1" t="s">
         <v>34</v>
@@ -10691,7 +10694,7 @@
         <v>35</v>
       </c>
       <c r="U133" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="V133" s="2">
         <v>15.543200000000001</v>
@@ -10717,10 +10720,10 @@
         <v>8</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>27</v>
@@ -10729,10 +10732,10 @@
         <v>1</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L134" s="1" t="s">
         <v>30</v>
@@ -10741,16 +10744,16 @@
         <v>1</v>
       </c>
       <c r="N134" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O134" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O134" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P134" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q134" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R134" s="1" t="s">
         <v>34</v>
@@ -10759,7 +10762,7 @@
         <v>35</v>
       </c>
       <c r="U134" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="V134" s="2">
         <v>15.543200000000001</v>
@@ -10785,10 +10788,10 @@
         <v>8</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>27</v>
@@ -10797,10 +10800,10 @@
         <v>1</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L135" s="1" t="s">
         <v>30</v>
@@ -10809,16 +10812,16 @@
         <v>1</v>
       </c>
       <c r="N135" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O135" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O135" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P135" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q135" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R135" s="1" t="s">
         <v>34</v>
@@ -10853,10 +10856,10 @@
         <v>8</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>27</v>
@@ -10865,10 +10868,10 @@
         <v>6</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L136" s="1" t="s">
         <v>30</v>
@@ -10877,16 +10880,16 @@
         <v>1</v>
       </c>
       <c r="N136" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O136" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="O136" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="P136" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q136" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="R136" s="1" t="s">
         <v>34</v>
@@ -10895,7 +10898,7 @@
         <v>35</v>
       </c>
       <c r="U136" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="V136" s="2">
         <v>15.55</v>
@@ -10921,10 +10924,10 @@
         <v>8</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>27</v>
@@ -10933,10 +10936,10 @@
         <v>6</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L137" s="1" t="s">
         <v>30</v>
@@ -10945,16 +10948,16 @@
         <v>1</v>
       </c>
       <c r="N137" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O137" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="O137" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="P137" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q137" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="R137" s="1" t="s">
         <v>34</v>
@@ -10963,7 +10966,7 @@
         <v>35</v>
       </c>
       <c r="U137" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="V137" s="2">
         <v>15.550800000000001</v>
@@ -10989,10 +10992,10 @@
         <v>8</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>27</v>
@@ -11001,10 +11004,10 @@
         <v>6</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L138" s="1" t="s">
         <v>30</v>
@@ -11013,16 +11016,16 @@
         <v>1</v>
       </c>
       <c r="N138" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O138" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="O138" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="P138" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q138" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="R138" s="1" t="s">
         <v>34</v>
@@ -11057,10 +11060,10 @@
         <v>10</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>27</v>
@@ -11069,10 +11072,10 @@
         <v>7</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L139" s="1" t="s">
         <v>30</v>
@@ -11081,16 +11084,16 @@
         <v>1</v>
       </c>
       <c r="N139" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O139" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="O139" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="P139" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q139" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="R139" s="1" t="s">
         <v>34</v>
@@ -11125,10 +11128,10 @@
         <v>10</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>27</v>
@@ -11137,10 +11140,10 @@
         <v>7</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L140" s="1" t="s">
         <v>30</v>
@@ -11149,16 +11152,16 @@
         <v>1</v>
       </c>
       <c r="N140" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O140" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="O140" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="P140" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="R140" s="1" t="s">
         <v>34</v>
@@ -11167,7 +11170,7 @@
         <v>35</v>
       </c>
       <c r="U140" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V140" s="2">
         <v>15.382999999999999</v>
@@ -11193,10 +11196,10 @@
         <v>10</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>27</v>
@@ -11205,10 +11208,10 @@
         <v>7</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L141" s="1" t="s">
         <v>30</v>
@@ -11217,16 +11220,16 @@
         <v>1</v>
       </c>
       <c r="N141" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O141" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="O141" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="P141" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q141" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="R141" s="1" t="s">
         <v>34</v>
@@ -11235,7 +11238,7 @@
         <v>35</v>
       </c>
       <c r="U141" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="V141" s="2">
         <v>15.387600000000001</v>
@@ -11261,10 +11264,10 @@
         <v>10</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>27</v>
@@ -11273,10 +11276,10 @@
         <v>7</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L142" s="1" t="s">
         <v>30</v>
@@ -11285,16 +11288,16 @@
         <v>1</v>
       </c>
       <c r="N142" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O142" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="O142" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="P142" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q142" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="R142" s="1" t="s">
         <v>34</v>
@@ -11329,10 +11332,10 @@
         <v>10</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>27</v>
@@ -11341,10 +11344,10 @@
         <v>7</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L143" s="1" t="s">
         <v>30</v>
@@ -11353,16 +11356,16 @@
         <v>1</v>
       </c>
       <c r="N143" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O143" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="O143" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="P143" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q143" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="R143" s="1" t="s">
         <v>34</v>
@@ -11371,7 +11374,7 @@
         <v>35</v>
       </c>
       <c r="U143" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V143" s="2">
         <v>15.388400000000001</v>
@@ -11397,10 +11400,10 @@
         <v>11</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>27</v>
@@ -11409,10 +11412,10 @@
         <v>1</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L144" s="1" t="s">
         <v>30</v>
@@ -11421,16 +11424,16 @@
         <v>1</v>
       </c>
       <c r="N144" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O144" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="O144" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="P144" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q144" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R144" s="1" t="s">
         <v>34</v>
@@ -11439,7 +11442,7 @@
         <v>35</v>
       </c>
       <c r="U144" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="V144" s="2">
         <v>15.3889</v>
@@ -11465,10 +11468,10 @@
         <v>11</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>27</v>
@@ -11477,10 +11480,10 @@
         <v>2</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L145" s="1" t="s">
         <v>30</v>
@@ -11489,16 +11492,16 @@
         <v>1</v>
       </c>
       <c r="N145" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="O145" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="O145" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="P145" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="R145" s="1" t="s">
         <v>34</v>
@@ -11507,7 +11510,7 @@
         <v>35</v>
       </c>
       <c r="U145" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V145" s="2">
         <v>15.393000000000001</v>
@@ -11533,10 +11536,10 @@
         <v>12</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>27</v>
@@ -11545,10 +11548,10 @@
         <v>17</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L146" s="1" t="s">
         <v>30</v>
@@ -11557,16 +11560,16 @@
         <v>7</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P146" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q146" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R146" s="1" t="s">
         <v>34</v>
@@ -11601,10 +11604,10 @@
         <v>13</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>27</v>
@@ -11613,10 +11616,10 @@
         <v>1</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L147" s="1" t="s">
         <v>30</v>
@@ -11625,16 +11628,16 @@
         <v>1</v>
       </c>
       <c r="N147" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O147" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="O147" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="P147" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q147" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R147" s="1" t="s">
         <v>34</v>
@@ -11643,7 +11646,7 @@
         <v>35</v>
       </c>
       <c r="U147" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="V147" s="2">
         <v>15.393599999999999</v>
@@ -11669,10 +11672,10 @@
         <v>13</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>27</v>
@@ -11681,10 +11684,10 @@
         <v>1</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L148" s="1" t="s">
         <v>30</v>
@@ -11693,16 +11696,16 @@
         <v>1</v>
       </c>
       <c r="N148" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O148" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="O148" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="P148" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q148" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R148" s="1" t="s">
         <v>34</v>
@@ -11711,7 +11714,7 @@
         <v>35</v>
       </c>
       <c r="U148" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="V148" s="2">
         <v>15.395200000000001</v>
@@ -11737,10 +11740,10 @@
         <v>13</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>27</v>
@@ -11749,10 +11752,10 @@
         <v>1</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L149" s="1" t="s">
         <v>30</v>
@@ -11761,16 +11764,16 @@
         <v>1</v>
       </c>
       <c r="N149" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O149" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="O149" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="P149" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q149" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R149" s="1" t="s">
         <v>34</v>
@@ -11779,7 +11782,7 @@
         <v>35</v>
       </c>
       <c r="U149" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="V149" s="2">
         <v>15.3955</v>
@@ -11805,10 +11808,10 @@
         <v>13</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>27</v>
@@ -11817,10 +11820,10 @@
         <v>1</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L150" s="1" t="s">
         <v>30</v>
@@ -11829,16 +11832,16 @@
         <v>1</v>
       </c>
       <c r="N150" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O150" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="O150" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="P150" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q150" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R150" s="1" t="s">
         <v>34</v>
@@ -11847,7 +11850,7 @@
         <v>35</v>
       </c>
       <c r="U150" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="V150" s="2">
         <v>15.3956</v>
@@ -11873,10 +11876,10 @@
         <v>13</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>27</v>
@@ -11885,10 +11888,10 @@
         <v>1</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L151" s="1" t="s">
         <v>30</v>
@@ -11897,16 +11900,16 @@
         <v>1</v>
       </c>
       <c r="N151" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O151" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="O151" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="P151" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q151" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R151" s="1" t="s">
         <v>34</v>
@@ -11915,7 +11918,7 @@
         <v>35</v>
       </c>
       <c r="U151" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V151" s="2">
         <v>15.3956</v>
@@ -11941,10 +11944,10 @@
         <v>18</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>27</v>
@@ -11953,10 +11956,10 @@
         <v>4</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L152" s="1" t="s">
         <v>30</v>
@@ -11965,16 +11968,16 @@
         <v>1</v>
       </c>
       <c r="N152" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O152" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="O152" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="P152" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q152" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R152" s="1" t="s">
         <v>34</v>
@@ -12009,10 +12012,10 @@
         <v>18</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>27</v>
@@ -12021,10 +12024,10 @@
         <v>4</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L153" s="1" t="s">
         <v>30</v>
@@ -12033,16 +12036,16 @@
         <v>1</v>
       </c>
       <c r="N153" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O153" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="O153" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="P153" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q153" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R153" s="1" t="s">
         <v>34</v>
@@ -12051,7 +12054,7 @@
         <v>35</v>
       </c>
       <c r="U153" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V153" s="2">
         <v>15.3971</v>
@@ -12077,10 +12080,10 @@
         <v>18</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>27</v>
@@ -12089,10 +12092,10 @@
         <v>4</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L154" s="1" t="s">
         <v>30</v>
@@ -12101,16 +12104,16 @@
         <v>1</v>
       </c>
       <c r="N154" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O154" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="O154" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="P154" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q154" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R154" s="1" t="s">
         <v>34</v>
@@ -12119,7 +12122,7 @@
         <v>35</v>
       </c>
       <c r="U154" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="V154" s="2">
         <v>15.3978</v>
@@ -12145,10 +12148,10 @@
         <v>18</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>27</v>
@@ -12157,10 +12160,10 @@
         <v>4</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L155" s="1" t="s">
         <v>30</v>
@@ -12169,16 +12172,16 @@
         <v>1</v>
       </c>
       <c r="N155" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O155" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="O155" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="P155" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q155" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R155" s="1" t="s">
         <v>34</v>
@@ -12187,7 +12190,7 @@
         <v>35</v>
       </c>
       <c r="U155" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="V155" s="2">
         <v>15.398099999999999</v>
@@ -12213,10 +12216,10 @@
         <v>18</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>27</v>
@@ -12225,10 +12228,10 @@
         <v>4</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L156" s="1" t="s">
         <v>30</v>
@@ -12237,16 +12240,16 @@
         <v>1</v>
       </c>
       <c r="N156" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O156" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="O156" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="P156" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q156" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R156" s="1" t="s">
         <v>34</v>
@@ -12255,7 +12258,7 @@
         <v>35</v>
       </c>
       <c r="U156" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V156" s="2">
         <v>15.398199999999999</v>
@@ -12281,10 +12284,10 @@
         <v>18</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>27</v>
@@ -12293,10 +12296,10 @@
         <v>4</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L157" s="1" t="s">
         <v>30</v>
@@ -12305,16 +12308,16 @@
         <v>1</v>
       </c>
       <c r="N157" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O157" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="O157" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="P157" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q157" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R157" s="1" t="s">
         <v>34</v>
@@ -12323,7 +12326,7 @@
         <v>35</v>
       </c>
       <c r="U157" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V157" s="2">
         <v>15.398300000000001</v>
@@ -12349,10 +12352,10 @@
         <v>18</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>27</v>
@@ -12361,10 +12364,10 @@
         <v>4</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L158" s="1" t="s">
         <v>30</v>
@@ -12373,16 +12376,16 @@
         <v>1</v>
       </c>
       <c r="N158" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O158" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="O158" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="P158" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q158" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R158" s="1" t="s">
         <v>34</v>
@@ -12391,7 +12394,7 @@
         <v>35</v>
       </c>
       <c r="U158" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V158" s="2">
         <v>15.398300000000001</v>
@@ -12417,10 +12420,10 @@
         <v>18</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>27</v>
@@ -12429,10 +12432,10 @@
         <v>4</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L159" s="1" t="s">
         <v>30</v>
@@ -12441,16 +12444,16 @@
         <v>1</v>
       </c>
       <c r="N159" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O159" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="O159" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="P159" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q159" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R159" s="1" t="s">
         <v>34</v>
@@ -12459,7 +12462,7 @@
         <v>35</v>
       </c>
       <c r="U159" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V159" s="2">
         <v>15.399100000000001</v>
@@ -12485,10 +12488,10 @@
         <v>18</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>27</v>
@@ -12497,10 +12500,10 @@
         <v>4</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L160" s="1" t="s">
         <v>30</v>
@@ -12509,16 +12512,16 @@
         <v>1</v>
       </c>
       <c r="N160" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O160" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="O160" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="P160" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q160" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R160" s="1" t="s">
         <v>34</v>
@@ -12527,7 +12530,7 @@
         <v>35</v>
       </c>
       <c r="U160" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="V160" s="2">
         <v>15.3992</v>
@@ -12553,10 +12556,10 @@
         <v>18</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>27</v>
@@ -12565,10 +12568,10 @@
         <v>4</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L161" s="1" t="s">
         <v>30</v>
@@ -12577,16 +12580,16 @@
         <v>1</v>
       </c>
       <c r="N161" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O161" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="O161" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="P161" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q161" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R161" s="1" t="s">
         <v>34</v>
@@ -12621,10 +12624,10 @@
         <v>18</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>27</v>
@@ -12633,10 +12636,10 @@
         <v>4</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L162" s="1" t="s">
         <v>30</v>
@@ -12645,16 +12648,16 @@
         <v>1</v>
       </c>
       <c r="N162" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O162" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="O162" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="P162" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q162" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R162" s="1" t="s">
         <v>34</v>

--- a/datacovidhn/FARMACIAS_HN.xlsx
+++ b/datacovidhn/FARMACIAS_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="8_{916CAA4F-0C4B-41B0-9C01-872BC023B4EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{41ADEA5A-6120-48CF-8775-8582F2C175E3}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="8_{916CAA4F-0C4B-41B0-9C01-872BC023B4EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F83CAD7E-D42F-4826-8299-7A10BD477BF9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1626,8 +1626,8 @@
   <dimension ref="A1:W162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="Q17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V23" sqref="V23"/>
+      <pane ySplit="1" topLeftCell="T12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>

--- a/datacovidhn/FARMACIAS_HN.xlsx
+++ b/datacovidhn/FARMACIAS_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="8_{916CAA4F-0C4B-41B0-9C01-872BC023B4EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F83CAD7E-D42F-4826-8299-7A10BD477BF9}"/>
+  <xr:revisionPtr revIDLastSave="239" documentId="8_{916CAA4F-0C4B-41B0-9C01-872BC023B4EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{46D35F55-0837-4980-95C8-1F5934711C2F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1626,8 +1626,8 @@
   <dimension ref="A1:W162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="O2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W5" sqref="W5"/>
+      <pane ySplit="1" topLeftCell="S34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -1789,10 +1789,10 @@
         <v>36</v>
       </c>
       <c r="V2" s="2">
-        <v>14.5923</v>
+        <v>15.5989</v>
       </c>
       <c r="W2" s="2">
-        <v>-88.5822</v>
+        <v>-87.208799999999997</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1857,10 +1857,10 @@
         <v>37</v>
       </c>
       <c r="V3" s="2">
-        <v>14.5924</v>
+        <v>15.7836</v>
       </c>
       <c r="W3" s="2">
-        <v>-88.582700000000003</v>
+        <v>-86.792500000000004</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1925,10 +1925,10 @@
         <v>38</v>
       </c>
       <c r="V4" s="2">
-        <v>14.594900000000001</v>
+        <v>15.784800000000001</v>
       </c>
       <c r="W4" s="2">
-        <v>-88.581699999999998</v>
+        <v>-86.792900000000003</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1993,10 +1993,10 @@
         <v>39</v>
       </c>
       <c r="V5" s="2">
-        <v>14.5952</v>
+        <v>15.7849</v>
       </c>
       <c r="W5" s="2">
-        <v>-88.581599999999995</v>
+        <v>-86.791899999999998</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>45</v>
       </c>
       <c r="V6" s="2">
-        <v>14.547599999999999</v>
+        <v>15.5989</v>
       </c>
       <c r="W6" s="2">
-        <v>-88.669700000000006</v>
+        <v>-87.208799999999997</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -2129,7 +2129,7 @@
         <v>46</v>
       </c>
       <c r="V7" s="2">
-        <v>14.550800000000001</v>
+        <v>15.599</v>
       </c>
       <c r="W7" s="2">
         <v>-88.659800000000004</v>
@@ -2197,10 +2197,10 @@
         <v>51</v>
       </c>
       <c r="V8" s="2">
-        <v>14.6058</v>
+        <v>15.7738</v>
       </c>
       <c r="W8" s="2">
-        <v>-88.583200000000005</v>
+        <v>-87.475499999999997</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2265,10 +2265,10 @@
         <v>52</v>
       </c>
       <c r="V9" s="2">
-        <v>14.4788</v>
+        <v>15.7744</v>
       </c>
       <c r="W9" s="2">
-        <v>-88.595200000000006</v>
+        <v>-87.446799999999996</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2333,10 +2333,10 @@
         <v>53</v>
       </c>
       <c r="V10" s="2">
-        <v>14.4823</v>
+        <v>15.781700000000001</v>
       </c>
       <c r="W10" s="2">
-        <v>-88.591300000000004</v>
+        <v>-87.453400000000002</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2401,10 +2401,10 @@
         <v>54</v>
       </c>
       <c r="V11" s="2">
-        <v>14.806699999999999</v>
+        <v>15.783300000000001</v>
       </c>
       <c r="W11" s="2">
-        <v>-88.415999999999997</v>
+        <v>-87.452100000000002</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2469,10 +2469,10 @@
         <v>37</v>
       </c>
       <c r="V12" s="2">
-        <v>14.809799999999999</v>
+        <v>15.7834</v>
       </c>
       <c r="W12" s="2">
-        <v>-88.410499999999999</v>
+        <v>-87.449399999999997</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2537,10 +2537,10 @@
         <v>55</v>
       </c>
       <c r="V13" s="2">
-        <v>14.8119</v>
+        <v>15.783899999999999</v>
       </c>
       <c r="W13" s="2">
-        <v>-88.41</v>
+        <v>-87.449700000000007</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2605,10 +2605,10 @@
         <v>37</v>
       </c>
       <c r="V14" s="2">
-        <v>14.8123</v>
+        <v>15.7841</v>
       </c>
       <c r="W14" s="2">
-        <v>-88.409099999999995</v>
+        <v>-87.450699999999998</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2673,10 +2673,10 @@
         <v>56</v>
       </c>
       <c r="V15" s="2">
-        <v>14.8123</v>
+        <v>15.7845</v>
       </c>
       <c r="W15" s="2">
-        <v>-88.411100000000005</v>
+        <v>-87.451599999999999</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2741,10 +2741,10 @@
         <v>62</v>
       </c>
       <c r="V16" s="2">
-        <v>14.8126</v>
+        <v>14.447100000000001</v>
       </c>
       <c r="W16" s="2">
-        <v>-88.408600000000007</v>
+        <v>-87.633300000000006</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2809,10 +2809,10 @@
         <v>36</v>
       </c>
       <c r="V17" s="2">
-        <v>14.8131</v>
+        <v>14.4542</v>
       </c>
       <c r="W17" s="2">
-        <v>-88.410700000000006</v>
+        <v>-87.643900000000002</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2877,10 +2877,10 @@
         <v>62</v>
       </c>
       <c r="V18" s="2">
-        <v>14.813499999999999</v>
+        <v>14.454499999999999</v>
       </c>
       <c r="W18" s="2">
-        <v>-88.409599999999998</v>
+        <v>-87.643500000000003</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2945,10 +2945,10 @@
         <v>63</v>
       </c>
       <c r="V19" s="2">
-        <v>14.8431</v>
+        <v>14.4549</v>
       </c>
       <c r="W19" s="2">
-        <v>-88.456699999999998</v>
+        <v>-87.639200000000002</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -3013,10 +3013,10 @@
         <v>64</v>
       </c>
       <c r="V20" s="2">
-        <v>14.8437</v>
+        <v>14.4573</v>
       </c>
       <c r="W20" s="2">
-        <v>-88.458200000000005</v>
+        <v>-87.642300000000006</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -3081,10 +3081,10 @@
         <v>64</v>
       </c>
       <c r="V21" s="2">
-        <v>14.0588</v>
+        <v>14.458</v>
       </c>
       <c r="W21" s="2">
-        <v>-88.6922</v>
+        <v>-87.640900000000002</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -3149,10 +3149,10 @@
         <v>37</v>
       </c>
       <c r="V22" s="2">
-        <v>14.7813</v>
+        <v>14.596399999999999</v>
       </c>
       <c r="W22" s="2">
-        <v>-88.585999999999999</v>
+        <v>-87.831199999999995</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -3217,10 +3217,10 @@
         <v>69</v>
       </c>
       <c r="V23" s="2">
-        <v>14.599460000000001</v>
+        <v>14.596500000000001</v>
       </c>
       <c r="W23" s="2">
-        <v>-87.843118000000004</v>
+        <v>-87.832300000000004</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3285,10 +3285,10 @@
         <v>37</v>
       </c>
       <c r="V24" s="2">
-        <v>14.433299999999999</v>
+        <v>14.598699999999999</v>
       </c>
       <c r="W24" s="2">
-        <v>-89.182699999999997</v>
+        <v>-87.831400000000002</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3353,10 +3353,10 @@
         <v>51</v>
       </c>
       <c r="V25" s="2">
-        <v>14.4337</v>
+        <v>14.767799999999999</v>
       </c>
       <c r="W25" s="2">
-        <v>-89.180400000000006</v>
+        <v>-88.779300000000006</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3421,10 +3421,10 @@
         <v>62</v>
       </c>
       <c r="V26" s="2">
-        <v>14.433999999999999</v>
+        <v>14.7681</v>
       </c>
       <c r="W26" s="2">
-        <v>-89.183000000000007</v>
+        <v>-88.777600000000007</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3489,10 +3489,10 @@
         <v>62</v>
       </c>
       <c r="V27" s="2">
-        <v>14.434699999999999</v>
+        <v>14.7681</v>
       </c>
       <c r="W27" s="2">
-        <v>-89.183300000000003</v>
+        <v>-88.777500000000003</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3557,10 +3557,10 @@
         <v>80</v>
       </c>
       <c r="V28" s="2">
-        <v>14.434699999999999</v>
+        <v>14.832100000000001</v>
       </c>
       <c r="W28" s="2">
-        <v>-89.183000000000007</v>
+        <v>-89094</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3625,10 +3625,10 @@
         <v>85</v>
       </c>
       <c r="V29" s="2">
-        <v>14.4351</v>
+        <v>14.8384</v>
       </c>
       <c r="W29" s="2">
-        <v>-89.183700000000002</v>
+        <v>-89.1554</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3693,10 +3693,10 @@
         <v>36</v>
       </c>
       <c r="V30" s="2">
-        <v>14.4352</v>
+        <v>15.065799999999999</v>
       </c>
       <c r="W30" s="2">
-        <v>-89.182699999999997</v>
+        <v>-88.747100000000003</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3761,10 +3761,10 @@
         <v>37</v>
       </c>
       <c r="V31" s="2">
-        <v>14.4352</v>
+        <v>15.477399999999999</v>
       </c>
       <c r="W31" s="2">
-        <v>-89.182000000000002</v>
+        <v>-87.985699999999994</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3829,10 +3829,10 @@
         <v>62</v>
       </c>
       <c r="V32" s="2">
-        <v>14.4354</v>
+        <v>15.4787</v>
       </c>
       <c r="W32" s="2">
-        <v>-89.183000000000007</v>
+        <v>-87.975099999999998</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3897,10 +3897,10 @@
         <v>97</v>
       </c>
       <c r="V33" s="2">
-        <v>14.435600000000001</v>
+        <v>15.4796</v>
       </c>
       <c r="W33" s="2">
-        <v>-89.182100000000005</v>
+        <v>-88.011200000000002</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3965,10 +3965,10 @@
         <v>55</v>
       </c>
       <c r="V34" s="2">
-        <v>14.435600000000001</v>
+        <v>15.4854</v>
       </c>
       <c r="W34" s="2">
-        <v>-89.183599999999998</v>
+        <v>-88.034099999999995</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -4033,10 +4033,10 @@
         <v>98</v>
       </c>
       <c r="V35" s="2">
-        <v>14.436</v>
+        <v>15.4855</v>
       </c>
       <c r="W35" s="2">
-        <v>-89.182100000000005</v>
+        <v>-87.984399999999994</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -4101,10 +4101,10 @@
         <v>99</v>
       </c>
       <c r="V36" s="2">
-        <v>14.436299999999999</v>
+        <v>15.489800000000001</v>
       </c>
       <c r="W36" s="2">
-        <v>-89.182299999999998</v>
+        <v>-87.986000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -4169,10 +4169,10 @@
         <v>100</v>
       </c>
       <c r="V37" s="2">
-        <v>14.4368</v>
+        <v>15.492599999999999</v>
       </c>
       <c r="W37" s="2">
-        <v>-89.182900000000004</v>
+        <v>-88.011499999999998</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4237,10 +4237,10 @@
         <v>37</v>
       </c>
       <c r="V38" s="2">
-        <v>14.4369</v>
+        <v>15.492699999999999</v>
       </c>
       <c r="W38" s="2">
-        <v>-89.182900000000004</v>
+        <v>-88.016499999999994</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4305,10 +4305,10 @@
         <v>37</v>
       </c>
       <c r="V39" s="2">
-        <v>14.4369</v>
+        <v>15.4933</v>
       </c>
       <c r="W39" s="2">
-        <v>-89.1828</v>
+        <v>-87.986500000000007</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4373,10 +4373,10 @@
         <v>37</v>
       </c>
       <c r="V40" s="2">
-        <v>14.437099999999999</v>
+        <v>15.493399999999999</v>
       </c>
       <c r="W40" s="2">
-        <v>-89.182400000000001</v>
+        <v>-87.984800000000007</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4441,10 +4441,10 @@
         <v>37</v>
       </c>
       <c r="V41" s="2">
-        <v>14.438000000000001</v>
+        <v>15.493600000000001</v>
       </c>
       <c r="W41" s="2">
-        <v>-89.182299999999998</v>
+        <v>-87.984099999999998</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4509,10 +4509,10 @@
         <v>36</v>
       </c>
       <c r="V42" s="2">
-        <v>14.438000000000001</v>
+        <v>15.494300000000001</v>
       </c>
       <c r="W42" s="2">
-        <v>-89.182100000000005</v>
+        <v>-88.034099999999995</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4577,10 +4577,10 @@
         <v>101</v>
       </c>
       <c r="V43" s="2">
-        <v>14.438499999999999</v>
+        <v>15.499700000000001</v>
       </c>
       <c r="W43" s="2">
-        <v>-89.183300000000003</v>
+        <v>-88.025000000000006</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4645,10 +4645,10 @@
         <v>102</v>
       </c>
       <c r="V44" s="2">
-        <v>14.3742</v>
+        <v>15.4999</v>
       </c>
       <c r="W44" s="2">
-        <v>-89.209400000000002</v>
+        <v>-88.037499999999994</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4713,10 +4713,10 @@
         <v>103</v>
       </c>
       <c r="V45" s="2">
-        <v>14.3748</v>
+        <v>15.5</v>
       </c>
       <c r="W45" s="2">
-        <v>-89.209299999999999</v>
+        <v>-88.020700000000005</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4781,10 +4781,10 @@
         <v>37</v>
       </c>
       <c r="V46" s="2">
-        <v>14.3749</v>
+        <v>15.500299999999999</v>
       </c>
       <c r="W46" s="2">
-        <v>-89.209400000000002</v>
+        <v>-88.038399999999996</v>
       </c>
     </row>
     <row r="47" spans="1:23">

--- a/datacovidhn/FARMACIAS_HN.xlsx
+++ b/datacovidhn/FARMACIAS_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="239" documentId="8_{916CAA4F-0C4B-41B0-9C01-872BC023B4EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{46D35F55-0837-4980-95C8-1F5934711C2F}"/>
+  <xr:revisionPtr revIDLastSave="265" documentId="8_{916CAA4F-0C4B-41B0-9C01-872BC023B4EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F8B2D6D9-C32C-402A-8733-2A999E79A4F3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1626,8 +1626,8 @@
   <dimension ref="A1:W162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="S34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47:XFD47"/>
+      <pane ySplit="1" topLeftCell="S55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A60" sqref="A60:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -4849,10 +4849,10 @@
         <v>104</v>
       </c>
       <c r="V47" s="2">
-        <v>14.3788</v>
+        <v>15.501799999999999</v>
       </c>
       <c r="W47" s="2">
-        <v>-89.128399999999999</v>
+        <v>-88.027100000000004</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4917,10 +4917,10 @@
         <v>62</v>
       </c>
       <c r="V48" s="2">
-        <v>14.380699999999999</v>
+        <v>15.504099999999999</v>
       </c>
       <c r="W48" s="2">
-        <v>-89.130899999999997</v>
+        <v>-88.014200000000002</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4985,10 +4985,10 @@
         <v>105</v>
       </c>
       <c r="V49" s="2">
-        <v>14.4985</v>
+        <v>15.505100000000001</v>
       </c>
       <c r="W49" s="2">
-        <v>-88.753500000000003</v>
+        <v>-88.022300000000001</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -5053,10 +5053,10 @@
         <v>106</v>
       </c>
       <c r="V50" s="2">
-        <v>14.5349</v>
+        <v>15.5061</v>
       </c>
       <c r="W50" s="2">
-        <v>-89.279399999999995</v>
+        <v>-88.027199999999993</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -5121,10 +5121,10 @@
         <v>63</v>
       </c>
       <c r="V51" s="2">
-        <v>14.4854</v>
+        <v>15.5105</v>
       </c>
       <c r="W51" s="2">
-        <v>-88.978999999999999</v>
+        <v>-88.012699999999995</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -5189,10 +5189,10 @@
         <v>37</v>
       </c>
       <c r="V52" s="2">
-        <v>14.658099999999999</v>
+        <v>15.5124</v>
       </c>
       <c r="W52" s="2">
-        <v>-86.214799999999997</v>
+        <v>-88.037000000000006</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5257,10 +5257,10 @@
         <v>62</v>
       </c>
       <c r="V53" s="2">
-        <v>14.662800000000001</v>
+        <v>15.5146</v>
       </c>
       <c r="W53" s="2">
-        <v>-86.216300000000004</v>
+        <v>-88.033600000000007</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5325,10 +5325,10 @@
         <v>37</v>
       </c>
       <c r="V54" s="2">
-        <v>14.664300000000001</v>
+        <v>15.5159</v>
       </c>
       <c r="W54" s="2">
-        <v>-86.2166</v>
+        <v>-88.028400000000005</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5393,10 +5393,10 @@
         <v>36</v>
       </c>
       <c r="V55" s="2">
-        <v>14.664300000000001</v>
+        <v>15.5244</v>
       </c>
       <c r="W55" s="2">
-        <v>-86.216300000000004</v>
+        <v>-88.038499999999999</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5461,10 +5461,10 @@
         <v>107</v>
       </c>
       <c r="V56" s="2">
-        <v>14.664999999999999</v>
+        <v>15.5298</v>
       </c>
       <c r="W56" s="2">
-        <v>-86.215699999999998</v>
+        <v>-88.032700000000006</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5529,10 +5529,10 @@
         <v>37</v>
       </c>
       <c r="V57" s="2">
-        <v>14.670400000000001</v>
+        <v>15.5299</v>
       </c>
       <c r="W57" s="2">
-        <v>-86.218900000000005</v>
+        <v>-88.026499999999999</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5597,10 +5597,10 @@
         <v>36</v>
       </c>
       <c r="V58" s="2">
-        <v>14.6706</v>
+        <v>15.5299</v>
       </c>
       <c r="W58" s="2">
-        <v>-86.222300000000004</v>
+        <v>-88.025499999999994</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5665,10 +5665,10 @@
         <v>36</v>
       </c>
       <c r="V59" s="2">
-        <v>14.6706</v>
+        <v>15.5306</v>
       </c>
       <c r="W59" s="2">
-        <v>-86.221199999999996</v>
+        <v>-88.029399999999995</v>
       </c>
     </row>
     <row r="60" spans="1:23">

--- a/datacovidhn/FARMACIAS_HN.xlsx
+++ b/datacovidhn/FARMACIAS_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="265" documentId="8_{916CAA4F-0C4B-41B0-9C01-872BC023B4EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F8B2D6D9-C32C-402A-8733-2A999E79A4F3}"/>
+  <xr:revisionPtr revIDLastSave="410" documentId="8_{916CAA4F-0C4B-41B0-9C01-872BC023B4EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{47431B76-5D7D-42F3-A95B-4B9BBE5452D1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1626,8 +1626,8 @@
   <dimension ref="A1:W162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="S55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A60" sqref="A60:XFD60"/>
+      <pane ySplit="1" topLeftCell="S126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A132" sqref="A132:XFD132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -5733,10 +5733,10 @@
         <v>37</v>
       </c>
       <c r="V60" s="2">
-        <v>14.6767</v>
+        <v>15.5341</v>
       </c>
       <c r="W60" s="2">
-        <v>-86.205299999999994</v>
+        <v>-88.019300000000001</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5801,10 +5801,10 @@
         <v>36</v>
       </c>
       <c r="V61" s="2">
-        <v>14.7057</v>
+        <v>15.537100000000001</v>
       </c>
       <c r="W61" s="2">
-        <v>-86.167599999999993</v>
+        <v>-88.014899999999997</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5869,10 +5869,10 @@
         <v>37</v>
       </c>
       <c r="V62" s="2">
-        <v>14.6373</v>
+        <v>15.542899999999999</v>
       </c>
       <c r="W62" s="2">
-        <v>-86.219200000000001</v>
+        <v>-88.023099999999999</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5937,10 +5937,10 @@
         <v>37</v>
       </c>
       <c r="V63" s="2">
-        <v>14.7018</v>
+        <v>15.549099999999999</v>
       </c>
       <c r="W63" s="2">
-        <v>-86.034400000000005</v>
+        <v>-88.035899999999998</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -6005,10 +6005,10 @@
         <v>37</v>
       </c>
       <c r="V64" s="2">
-        <v>14.7232</v>
+        <v>15.5505</v>
       </c>
       <c r="W64" s="2">
-        <v>-86.138099999999994</v>
+        <v>-88.004800000000003</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -6073,10 +6073,10 @@
         <v>62</v>
       </c>
       <c r="V65" s="2">
-        <v>14.8385</v>
+        <v>15.6119</v>
       </c>
       <c r="W65" s="2">
-        <v>-85.882800000000003</v>
+        <v>-87.956299999999999</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -6141,10 +6141,10 @@
         <v>62</v>
       </c>
       <c r="V66" s="2">
-        <v>14.840999999999999</v>
+        <v>15.316800000000001</v>
       </c>
       <c r="W66" s="2">
-        <v>-85.904200000000003</v>
+        <v>-87.990300000000005</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6209,10 +6209,10 @@
         <v>37</v>
       </c>
       <c r="V67" s="2">
-        <v>14.8454</v>
+        <v>15.4361</v>
       </c>
       <c r="W67" s="2">
-        <v>-85.900700000000001</v>
+        <v>-87.921099999999996</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6277,10 +6277,10 @@
         <v>62</v>
       </c>
       <c r="V68" s="2">
-        <v>15.083600000000001</v>
+        <v>15.436500000000001</v>
       </c>
       <c r="W68" s="2">
-        <v>-85.558899999999994</v>
+        <v>-87.924300000000002</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6345,10 +6345,10 @@
         <v>37</v>
       </c>
       <c r="V69" s="2">
-        <v>15.0847</v>
+        <v>15.438499999999999</v>
       </c>
       <c r="W69" s="2">
-        <v>-85.557900000000004</v>
+        <v>-87.926900000000003</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6413,10 +6413,10 @@
         <v>120</v>
       </c>
       <c r="V70" s="2">
-        <v>15.030799999999999</v>
+        <v>15.4405</v>
       </c>
       <c r="W70" s="2">
-        <v>-86.068600000000004</v>
+        <v>-87.929100000000005</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6481,10 +6481,10 @@
         <v>37</v>
       </c>
       <c r="V71" s="2">
-        <v>15.5166</v>
+        <v>13.309900000000001</v>
       </c>
       <c r="W71" s="2">
-        <v>-85.866600000000005</v>
+        <v>-87.179100000000005</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6549,10 +6549,10 @@
         <v>37</v>
       </c>
       <c r="V72" s="2">
-        <v>15.518599999999999</v>
+        <v>13.3125</v>
       </c>
       <c r="W72" s="2">
-        <v>-85.873000000000005</v>
+        <v>-87.175299999999993</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6617,10 +6617,10 @@
         <v>131</v>
       </c>
       <c r="V73" s="2">
-        <v>15.198499999999999</v>
+        <v>13.095800000000001</v>
       </c>
       <c r="W73" s="2">
-        <v>-85.772199999999998</v>
+        <v>-87.057100000000005</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6685,10 +6685,10 @@
         <v>36</v>
       </c>
       <c r="V74" s="2">
-        <v>15.259399999999999</v>
+        <v>14.0412</v>
       </c>
       <c r="W74" s="2">
-        <v>-85.746200000000002</v>
+        <v>-87.232399999999998</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6753,10 +6753,10 @@
         <v>55</v>
       </c>
       <c r="V75" s="2">
-        <v>14.869400000000001</v>
+        <v>14.0457</v>
       </c>
       <c r="W75" s="2">
-        <v>-86.183800000000005</v>
+        <v>-87.211399999999998</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6821,10 +6821,10 @@
         <v>36</v>
       </c>
       <c r="V76" s="2">
-        <v>14.351000000000001</v>
+        <v>14.0543</v>
       </c>
       <c r="W76" s="2">
-        <v>-85.887799999999999</v>
+        <v>-87.2226</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>106</v>
       </c>
       <c r="V77" s="2">
-        <v>14.9177</v>
+        <v>14.055099999999999</v>
       </c>
       <c r="W77" s="2">
-        <v>-88.237200000000001</v>
+        <v>-87.222300000000004</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6957,10 +6957,10 @@
         <v>107</v>
       </c>
       <c r="V78" s="2">
-        <v>14.920199999999999</v>
+        <v>14.055400000000001</v>
       </c>
       <c r="W78" s="2">
-        <v>-88.245099999999994</v>
+        <v>-87.222099999999998</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -7025,10 +7025,10 @@
         <v>37</v>
       </c>
       <c r="V79" s="2">
-        <v>14.9216</v>
+        <v>14.0558</v>
       </c>
       <c r="W79" s="2">
-        <v>-88.237200000000001</v>
+        <v>-87.229299999999995</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -7093,10 +7093,10 @@
         <v>138</v>
       </c>
       <c r="V80" s="2">
-        <v>14.923299999999999</v>
+        <v>14.0588</v>
       </c>
       <c r="W80" s="2">
-        <v>-88.244500000000002</v>
+        <v>-87.189599999999999</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -7161,10 +7161,10 @@
         <v>106</v>
       </c>
       <c r="V81" s="2">
-        <v>14.927899999999999</v>
+        <v>14.058999999999999</v>
       </c>
       <c r="W81" s="2">
-        <v>-88.236900000000006</v>
+        <v>-87.189400000000006</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7229,10 +7229,10 @@
         <v>139</v>
       </c>
       <c r="V82" s="2">
-        <v>14.8439</v>
+        <v>14.059100000000001</v>
       </c>
       <c r="W82" s="2">
-        <v>-88.461799999999997</v>
+        <v>-87.220600000000005</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7297,10 +7297,10 @@
         <v>36</v>
       </c>
       <c r="V83" s="2">
-        <v>15.2621</v>
+        <v>14.0601</v>
       </c>
       <c r="W83" s="2">
-        <v>-88.541700000000006</v>
+        <v>-83.400400000000005</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7365,10 +7365,10 @@
         <v>140</v>
       </c>
       <c r="V84" s="2">
-        <v>15.2738</v>
+        <v>14.064</v>
       </c>
       <c r="W84" s="2">
-        <v>-88.282899999999998</v>
+        <v>-87.209599999999995</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7433,10 +7433,10 @@
         <v>37</v>
       </c>
       <c r="V85" s="2">
-        <v>15.3117</v>
+        <v>14.0655</v>
       </c>
       <c r="W85" s="2">
-        <v>-88.439599999999999</v>
+        <v>-87.1785</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7501,10 +7501,10 @@
         <v>107</v>
       </c>
       <c r="V86" s="2">
-        <v>15.3123</v>
+        <v>14.0655</v>
       </c>
       <c r="W86" s="2">
-        <v>-88.439700000000002</v>
+        <v>-87.179299999999998</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7569,10 +7569,10 @@
         <v>107</v>
       </c>
       <c r="V87" s="2">
-        <v>15.3133</v>
+        <v>14.0655</v>
       </c>
       <c r="W87" s="2">
-        <v>-88.436899999999994</v>
+        <v>-87.179599999999994</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7637,10 +7637,10 @@
         <v>141</v>
       </c>
       <c r="V88" s="2">
-        <v>15.314</v>
+        <v>14.0665</v>
       </c>
       <c r="W88" s="2">
-        <v>-88.440200000000004</v>
+        <v>-87.210700000000003</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7705,10 +7705,10 @@
         <v>106</v>
       </c>
       <c r="V89" s="2">
-        <v>15.314299999999999</v>
+        <v>14.0692</v>
       </c>
       <c r="W89" s="2">
-        <v>-88.437200000000004</v>
+        <v>-87.185000000000002</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7773,10 +7773,10 @@
         <v>37</v>
       </c>
       <c r="V90" s="2">
-        <v>15.371499999999999</v>
+        <v>14.081799999999999</v>
       </c>
       <c r="W90" s="2">
-        <v>-88.299599999999998</v>
+        <v>-87.209599999999995</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7841,10 +7841,10 @@
         <v>106</v>
       </c>
       <c r="V91" s="2">
-        <v>14.8527</v>
+        <v>14.083399999999999</v>
       </c>
       <c r="W91" s="2">
-        <v>-88.419799999999995</v>
+        <v>-87.174999999999997</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7909,10 +7909,10 @@
         <v>36</v>
       </c>
       <c r="V92" s="2">
-        <v>14.7552</v>
+        <v>14.0837</v>
       </c>
       <c r="W92" s="2">
-        <v>-88.114400000000003</v>
+        <v>-87.210099999999997</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7977,10 +7977,10 @@
         <v>36</v>
       </c>
       <c r="V93" s="2">
-        <v>14.769399999999999</v>
+        <v>14.0844</v>
       </c>
       <c r="W93" s="2">
-        <v>-88.145799999999994</v>
+        <v>-87.182699999999997</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -8045,10 +8045,10 @@
         <v>37</v>
       </c>
       <c r="V94" s="2">
-        <v>15.1439</v>
+        <v>14.085000000000001</v>
       </c>
       <c r="W94" s="2">
-        <v>-88.234700000000004</v>
+        <v>-87.186999999999998</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -8113,10 +8113,10 @@
         <v>62</v>
       </c>
       <c r="V95" s="2">
-        <v>14.8727</v>
+        <v>14.085900000000001</v>
       </c>
       <c r="W95" s="2">
-        <v>-88.072199999999995</v>
+        <v>-87.174400000000006</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8181,10 +8181,10 @@
         <v>51</v>
       </c>
       <c r="V96" s="2">
-        <v>13.5328</v>
+        <v>14.0869</v>
       </c>
       <c r="W96" s="2">
-        <v>-87.552300000000002</v>
+        <v>-87.184899999999999</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8249,10 +8249,10 @@
         <v>36</v>
       </c>
       <c r="V97" s="2">
-        <v>13.378299999999999</v>
+        <v>14.088200000000001</v>
       </c>
       <c r="W97" s="2">
-        <v>-87.575900000000004</v>
+        <v>-87.183400000000006</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8317,10 +8317,10 @@
         <v>36</v>
       </c>
       <c r="V98" s="2">
-        <v>13.4994</v>
+        <v>14.089600000000001</v>
       </c>
       <c r="W98" s="2">
-        <v>-87.442599999999999</v>
+        <v>-87.188500000000005</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8385,10 +8385,10 @@
         <v>37</v>
       </c>
       <c r="V99" s="2">
-        <v>13.5281</v>
+        <v>14.09</v>
       </c>
       <c r="W99" s="2">
-        <v>-87.490200000000002</v>
+        <v>-87.206500000000005</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8453,10 +8453,10 @@
         <v>106</v>
       </c>
       <c r="V100" s="2">
-        <v>13.532400000000001</v>
+        <v>14.090199999999999</v>
       </c>
       <c r="W100" s="2">
-        <v>-87.501300000000001</v>
+        <v>-87.197199999999995</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8521,10 +8521,10 @@
         <v>142</v>
       </c>
       <c r="V101" s="2">
-        <v>13.5337</v>
+        <v>14.090400000000001</v>
       </c>
       <c r="W101" s="2">
-        <v>-87.496300000000005</v>
+        <v>-87.196799999999996</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8589,10 +8589,10 @@
         <v>143</v>
       </c>
       <c r="V102" s="2">
-        <v>13.280799999999999</v>
+        <v>14.092599999999999</v>
       </c>
       <c r="W102" s="2">
-        <v>-87.655299999999997</v>
+        <v>-87.2393</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8657,10 +8657,10 @@
         <v>143</v>
       </c>
       <c r="V103" s="2">
-        <v>13.2742</v>
+        <v>14.092700000000001</v>
       </c>
       <c r="W103" s="2">
-        <v>-87.613799999999998</v>
+        <v>-87.194100000000006</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8725,10 +8725,10 @@
         <v>143</v>
       </c>
       <c r="V104" s="2">
-        <v>13.285</v>
+        <v>14.0928</v>
       </c>
       <c r="W104" s="2">
-        <v>-87.621499999999997</v>
+        <v>-87.218500000000006</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8793,10 +8793,10 @@
         <v>144</v>
       </c>
       <c r="V105" s="2">
-        <v>13.3597</v>
+        <v>14.0947</v>
       </c>
       <c r="W105" s="2">
-        <v>-87.599599999999995</v>
+        <v>-87.1952</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8861,10 +8861,10 @@
         <v>62</v>
       </c>
       <c r="V106" s="2">
-        <v>13.2681</v>
+        <v>14.095700000000001</v>
       </c>
       <c r="W106" s="2">
-        <v>-87.658199999999994</v>
+        <v>-87.182699999999997</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8929,10 +8929,10 @@
         <v>145</v>
       </c>
       <c r="V107" s="2">
-        <v>13.268700000000001</v>
+        <v>14.095700000000001</v>
       </c>
       <c r="W107" s="2">
-        <v>-87.657600000000002</v>
+        <v>-87.211200000000005</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8997,10 +8997,10 @@
         <v>146</v>
       </c>
       <c r="V108" s="2">
-        <v>13.251200000000001</v>
+        <v>14.097</v>
       </c>
       <c r="W108" s="2">
-        <v>-87.6511</v>
+        <v>-87.207499999999996</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -9065,10 +9065,10 @@
         <v>147</v>
       </c>
       <c r="V109" s="2">
-        <v>13.254</v>
+        <v>14.097</v>
       </c>
       <c r="W109" s="2">
-        <v>-87.649000000000001</v>
+        <v>-87.222499999999997</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9133,10 +9133,10 @@
         <v>37</v>
       </c>
       <c r="V110" s="2">
-        <v>13.595599999999999</v>
+        <v>14.099600000000001</v>
       </c>
       <c r="W110" s="2">
-        <v>-87.761899999999997</v>
+        <v>-87.194500000000005</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9201,10 +9201,10 @@
         <v>51</v>
       </c>
       <c r="V111" s="2">
-        <v>13.5961</v>
+        <v>14.0998</v>
       </c>
       <c r="W111" s="2">
-        <v>-87.764600000000002</v>
+        <v>-87.189599999999999</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9269,10 +9269,10 @@
         <v>36</v>
       </c>
       <c r="V112" s="2">
-        <v>13.5962</v>
+        <v>14.0999</v>
       </c>
       <c r="W112" s="2">
-        <v>-87.764700000000005</v>
+        <v>-87.187100000000001</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9337,10 +9337,10 @@
         <v>107</v>
       </c>
       <c r="V113" s="2">
-        <v>13.596299999999999</v>
+        <v>14.1004</v>
       </c>
       <c r="W113" s="2">
-        <v>-87.763400000000004</v>
+        <v>-87.208500000000001</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9405,10 +9405,10 @@
         <v>37</v>
       </c>
       <c r="V114" s="2">
-        <v>13.593</v>
+        <v>14.1004</v>
       </c>
       <c r="W114" s="2">
-        <v>-87.750600000000006</v>
+        <v>-87.183999999999997</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9473,10 +9473,10 @@
         <v>107</v>
       </c>
       <c r="V115" s="2">
-        <v>13.4175</v>
+        <v>14.1006</v>
       </c>
       <c r="W115" s="2">
-        <v>-87.448099999999997</v>
+        <v>-87.182199999999995</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9541,10 +9541,10 @@
         <v>36</v>
       </c>
       <c r="V116" s="2">
-        <v>13.4191</v>
+        <v>14.1007</v>
       </c>
       <c r="W116" s="2">
-        <v>-87.448300000000003</v>
+        <v>-87.180599999999998</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9609,10 +9609,10 @@
         <v>106</v>
       </c>
       <c r="V117" s="2">
-        <v>13.4306</v>
+        <v>14.1007</v>
       </c>
       <c r="W117" s="2">
-        <v>-87.4285</v>
+        <v>-87.183400000000006</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9677,10 +9677,10 @@
         <v>148</v>
       </c>
       <c r="V118" s="2">
-        <v>13.4314</v>
+        <v>14.101000000000001</v>
       </c>
       <c r="W118" s="2">
-        <v>-87.449700000000007</v>
+        <v>-87.182699999999997</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9745,10 +9745,10 @@
         <v>149</v>
       </c>
       <c r="V119" s="2">
-        <v>13.4329</v>
+        <v>14.1014</v>
       </c>
       <c r="W119" s="2">
-        <v>-87.450699999999998</v>
+        <v>-87.207800000000006</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9813,10 +9813,10 @@
         <v>36</v>
       </c>
       <c r="V120" s="2">
-        <v>13.434200000000001</v>
+        <v>14.102600000000001</v>
       </c>
       <c r="W120" s="2">
-        <v>-87.427700000000002</v>
+        <v>-87.184799999999996</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9881,10 +9881,10 @@
         <v>37</v>
       </c>
       <c r="V121" s="2">
-        <v>13.436299999999999</v>
+        <v>14.1028</v>
       </c>
       <c r="W121" s="2">
-        <v>-87.4512</v>
+        <v>-87.178899999999999</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9949,10 +9949,10 @@
         <v>107</v>
       </c>
       <c r="V122" s="2">
-        <v>13.439500000000001</v>
+        <v>14.1029</v>
       </c>
       <c r="W122" s="2">
-        <v>-87.451400000000007</v>
+        <v>-87.196799999999996</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -10017,10 +10017,10 @@
         <v>150</v>
       </c>
       <c r="V123" s="2">
-        <v>13.4544</v>
+        <v>14.1043</v>
       </c>
       <c r="W123" s="2">
-        <v>-87.453800000000001</v>
+        <v>-87.198599999999999</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10085,10 +10085,10 @@
         <v>37</v>
       </c>
       <c r="V124" s="2">
-        <v>13.4565</v>
+        <v>14.1045</v>
       </c>
       <c r="W124" s="2">
-        <v>-87.453800000000001</v>
+        <v>-87.199200000000005</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10153,10 +10153,10 @@
         <v>143</v>
       </c>
       <c r="V125" s="2">
-        <v>15.132300000000001</v>
+        <v>14.1046</v>
       </c>
       <c r="W125" s="2">
-        <v>-87.130200000000002</v>
+        <v>-87.236400000000003</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10221,10 +10221,10 @@
         <v>36</v>
       </c>
       <c r="V126" s="2">
-        <v>15.130599999999999</v>
+        <v>14.1052</v>
       </c>
       <c r="W126" s="2">
-        <v>-87.147199999999998</v>
+        <v>-87.205399999999997</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10289,10 +10289,10 @@
         <v>37</v>
       </c>
       <c r="V127" s="2">
-        <v>15.5138</v>
+        <v>14.106299999999999</v>
       </c>
       <c r="W127" s="2">
-        <v>-87.6691</v>
+        <v>-87.204499999999996</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10357,10 +10357,10 @@
         <v>151</v>
       </c>
       <c r="V128" s="2">
-        <v>15.5343</v>
+        <v>14.1065</v>
       </c>
       <c r="W128" s="2">
-        <v>-87.653300000000002</v>
+        <v>-87.205399999999997</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10425,10 +10425,10 @@
         <v>152</v>
       </c>
       <c r="V129" s="2">
-        <v>15.5352</v>
+        <v>14.1067</v>
       </c>
       <c r="W129" s="2">
-        <v>-87.652600000000007</v>
+        <v>-87.206800000000001</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10493,10 +10493,10 @@
         <v>153</v>
       </c>
       <c r="V130" s="2">
-        <v>15.536099999999999</v>
+        <v>14.1068</v>
       </c>
       <c r="W130" s="2">
-        <v>-87.653099999999995</v>
+        <v>-87.205799999999996</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10561,10 +10561,10 @@
         <v>36</v>
       </c>
       <c r="V131" s="2">
-        <v>15.5425</v>
+        <v>14.107900000000001</v>
       </c>
       <c r="W131" s="2">
-        <v>-87.6524</v>
+        <v>-87.205299999999994</v>
       </c>
     </row>
     <row r="132" spans="1:23">

--- a/datacovidhn/FARMACIAS_HN.xlsx
+++ b/datacovidhn/FARMACIAS_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="410" documentId="8_{916CAA4F-0C4B-41B0-9C01-872BC023B4EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{47431B76-5D7D-42F3-A95B-4B9BBE5452D1}"/>
+  <xr:revisionPtr revIDLastSave="476" documentId="8_{916CAA4F-0C4B-41B0-9C01-872BC023B4EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BBFBB4FF-40AE-482C-91A4-7AC0A7377D76}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2438" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2438" uniqueCount="203">
   <si>
     <t>OBJECTID_1</t>
   </si>
@@ -571,9 +571,6 @@
   </si>
   <si>
     <t>HND-1102</t>
-  </si>
-  <si>
-    <t>pharmacy</t>
   </si>
   <si>
     <t>12</t>
@@ -655,7 +652,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -786,6 +783,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1138,7 +1143,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1147,6 +1152,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1623,11 +1629,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W162"/>
+  <dimension ref="A1:AA162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="S126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A132" sqref="A132:XFD132"/>
+      <pane ySplit="1" topLeftCell="S137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA147" sqref="AA147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -10629,10 +10635,10 @@
         <v>153</v>
       </c>
       <c r="V132" s="2">
-        <v>15.543200000000001</v>
+        <v>14.1082</v>
       </c>
       <c r="W132" s="2">
-        <v>-87.652199999999993</v>
+        <v>-87.2059</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10697,10 +10703,10 @@
         <v>154</v>
       </c>
       <c r="V133" s="2">
-        <v>15.543200000000001</v>
+        <v>14.1089</v>
       </c>
       <c r="W133" s="2">
-        <v>-87.652199999999993</v>
+        <v>-87.2089</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10765,10 +10771,10 @@
         <v>107</v>
       </c>
       <c r="V134" s="2">
-        <v>15.543200000000001</v>
+        <v>14.1137</v>
       </c>
       <c r="W134" s="2">
-        <v>-87.652199999999993</v>
+        <v>-87.193799999999996</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10833,10 +10839,10 @@
         <v>37</v>
       </c>
       <c r="V135" s="2">
-        <v>15.549799999999999</v>
+        <v>14.1287</v>
       </c>
       <c r="W135" s="2">
-        <v>-87.651600000000002</v>
+        <v>-87.227800000000002</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10901,10 +10907,10 @@
         <v>159</v>
       </c>
       <c r="V136" s="2">
-        <v>15.55</v>
+        <v>14.5402</v>
       </c>
       <c r="W136" s="2">
-        <v>-87.651600000000002</v>
+        <v>-86.831100000000006</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10969,10 +10975,10 @@
         <v>106</v>
       </c>
       <c r="V137" s="2">
-        <v>15.550800000000001</v>
+        <v>14.541600000000001</v>
       </c>
       <c r="W137" s="2">
-        <v>-87.651399999999995</v>
+        <v>-86.830799999999996</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11037,10 +11043,10 @@
         <v>55</v>
       </c>
       <c r="V138" s="2">
-        <v>15.552</v>
+        <v>14.5555</v>
       </c>
       <c r="W138" s="2">
-        <v>-87.651300000000006</v>
+        <v>-86.827200000000005</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11105,10 +11111,10 @@
         <v>55</v>
       </c>
       <c r="V139" s="2">
-        <v>15.3794</v>
+        <v>14.4832</v>
       </c>
       <c r="W139" s="2">
-        <v>-87.807299999999998</v>
+        <v>-87.982100000000003</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11173,10 +11179,10 @@
         <v>166</v>
       </c>
       <c r="V140" s="2">
-        <v>15.382999999999999</v>
+        <v>14.4839</v>
       </c>
       <c r="W140" s="2">
-        <v>-87.804599999999994</v>
+        <v>-87.982100000000003</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11241,10 +11247,10 @@
         <v>106</v>
       </c>
       <c r="V141" s="2">
-        <v>15.387600000000001</v>
+        <v>14.4841</v>
       </c>
       <c r="W141" s="2">
-        <v>-87.805400000000006</v>
+        <v>-87.981499999999997</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11309,10 +11315,10 @@
         <v>55</v>
       </c>
       <c r="V142" s="2">
-        <v>15.3881</v>
+        <v>14.4849</v>
       </c>
       <c r="W142" s="2">
-        <v>-87.811000000000007</v>
+        <v>-87.982100000000003</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11377,10 +11383,10 @@
         <v>167</v>
       </c>
       <c r="V143" s="2">
-        <v>15.388400000000001</v>
+        <v>14.4855</v>
       </c>
       <c r="W143" s="2">
-        <v>-87.8108</v>
+        <v>-87.981499999999997</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11445,13 +11451,13 @@
         <v>174</v>
       </c>
       <c r="V144" s="2">
-        <v>15.3889</v>
+        <v>16.319299999999998</v>
       </c>
       <c r="W144" s="2">
-        <v>-87.805899999999994</v>
-      </c>
-    </row>
-    <row r="145" spans="1:23">
+        <v>-86.538700000000006</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27">
       <c r="A145" s="1">
         <v>35879</v>
       </c>
@@ -11510,16 +11516,16 @@
         <v>35</v>
       </c>
       <c r="U145" s="7" t="s">
-        <v>179</v>
+        <v>39</v>
       </c>
       <c r="V145" s="2">
-        <v>15.393000000000001</v>
+        <v>16.442499999999999</v>
       </c>
       <c r="W145" s="2">
-        <v>-87.806200000000004</v>
-      </c>
-    </row>
-    <row r="146" spans="1:23">
+        <v>-85.887699999999995</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27">
       <c r="A146" s="1">
         <v>25855</v>
       </c>
@@ -11536,10 +11542,10 @@
         <v>12</v>
       </c>
       <c r="F146" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G146" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>27</v>
@@ -11548,10 +11554,10 @@
         <v>17</v>
       </c>
       <c r="J146" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K146" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="K146" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="L146" s="1" t="s">
         <v>30</v>
@@ -11560,16 +11566,16 @@
         <v>7</v>
       </c>
       <c r="N146" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O146" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="O146" s="1" t="s">
+      <c r="P146" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q146" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="P146" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q146" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="R146" s="1" t="s">
         <v>34</v>
@@ -11581,13 +11587,13 @@
         <v>39</v>
       </c>
       <c r="V146" s="2">
-        <v>15.393599999999999</v>
+        <v>14.245100000000001</v>
       </c>
       <c r="W146" s="2">
-        <v>-87.807100000000005</v>
-      </c>
-    </row>
-    <row r="147" spans="1:23">
+        <v>-87.898399999999995</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27" ht="15">
       <c r="A147" s="1">
         <v>28037</v>
       </c>
@@ -11604,58 +11610,59 @@
         <v>13</v>
       </c>
       <c r="F147" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G147" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="H147" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I147" s="1">
+        <v>1</v>
+      </c>
+      <c r="J147" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H147" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I147" s="1">
-        <v>1</v>
-      </c>
-      <c r="J147" s="1" t="s">
+      <c r="K147" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="K147" s="1" t="s">
+      <c r="L147" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M147" s="1">
+        <v>1</v>
+      </c>
+      <c r="N147" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="L147" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M147" s="1">
-        <v>1</v>
-      </c>
-      <c r="N147" s="1" t="s">
+      <c r="O147" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P147" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q147" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="O147" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="P147" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q147" s="1" t="s">
+      <c r="R147" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S147" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U147" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="R147" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S147" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U147" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="V147" s="2">
-        <v>15.393599999999999</v>
+        <v>14.5839</v>
       </c>
       <c r="W147" s="2">
-        <v>-87.7898</v>
-      </c>
-    </row>
-    <row r="148" spans="1:23">
+        <v>-88.584599999999995</v>
+      </c>
+      <c r="AA147" s="8"/>
+    </row>
+    <row r="148" spans="1:27">
       <c r="A148" s="1">
         <v>28151</v>
       </c>
@@ -11672,40 +11679,40 @@
         <v>13</v>
       </c>
       <c r="F148" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G148" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G148" s="1" t="s">
+      <c r="H148" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I148" s="1">
+        <v>1</v>
+      </c>
+      <c r="J148" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H148" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I148" s="1">
-        <v>1</v>
-      </c>
-      <c r="J148" s="1" t="s">
+      <c r="K148" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="K148" s="1" t="s">
+      <c r="L148" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M148" s="1">
+        <v>1</v>
+      </c>
+      <c r="N148" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="L148" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M148" s="1">
-        <v>1</v>
-      </c>
-      <c r="N148" s="1" t="s">
+      <c r="O148" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P148" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q148" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="O148" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="P148" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q148" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="R148" s="1" t="s">
         <v>34</v>
@@ -11717,13 +11724,13 @@
         <v>145</v>
       </c>
       <c r="V148" s="2">
-        <v>15.395200000000001</v>
+        <v>14.587899999999999</v>
       </c>
       <c r="W148" s="2">
-        <v>-87.808099999999996</v>
-      </c>
-    </row>
-    <row r="149" spans="1:23">
+        <v>-88.582999999999998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27">
       <c r="A149" s="1">
         <v>28156</v>
       </c>
@@ -11740,58 +11747,58 @@
         <v>13</v>
       </c>
       <c r="F149" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G149" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G149" s="1" t="s">
+      <c r="H149" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I149" s="1">
+        <v>1</v>
+      </c>
+      <c r="J149" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H149" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I149" s="1">
-        <v>1</v>
-      </c>
-      <c r="J149" s="1" t="s">
+      <c r="K149" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="K149" s="1" t="s">
+      <c r="L149" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M149" s="1">
+        <v>1</v>
+      </c>
+      <c r="N149" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="L149" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M149" s="1">
-        <v>1</v>
-      </c>
-      <c r="N149" s="1" t="s">
+      <c r="O149" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P149" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q149" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="O149" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="P149" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q149" s="1" t="s">
+      <c r="R149" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S149" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U149" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="R149" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S149" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U149" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="V149" s="2">
-        <v>15.3955</v>
+        <v>14.588200000000001</v>
       </c>
       <c r="W149" s="2">
-        <v>-87.797700000000006</v>
-      </c>
-    </row>
-    <row r="150" spans="1:23">
+        <v>-88.582700000000003</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27">
       <c r="A150" s="1">
         <v>28181</v>
       </c>
@@ -11808,41 +11815,41 @@
         <v>13</v>
       </c>
       <c r="F150" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G150" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G150" s="1" t="s">
+      <c r="H150" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I150" s="1">
+        <v>1</v>
+      </c>
+      <c r="J150" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H150" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I150" s="1">
-        <v>1</v>
-      </c>
-      <c r="J150" s="1" t="s">
+      <c r="K150" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="K150" s="1" t="s">
+      <c r="L150" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M150" s="1">
+        <v>1</v>
+      </c>
+      <c r="N150" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="L150" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M150" s="1">
-        <v>1</v>
-      </c>
-      <c r="N150" s="1" t="s">
+      <c r="O150" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P150" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q150" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="O150" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="P150" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q150" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="R150" s="1" t="s">
         <v>34</v>
       </c>
@@ -11850,16 +11857,16 @@
         <v>35</v>
       </c>
       <c r="U150" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V150" s="2">
-        <v>15.3956</v>
+        <v>14.588800000000001</v>
       </c>
       <c r="W150" s="2">
-        <v>-87.808400000000006</v>
-      </c>
-    </row>
-    <row r="151" spans="1:23">
+        <v>-88.581699999999998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:27">
       <c r="A151" s="1">
         <v>28327</v>
       </c>
@@ -11876,41 +11883,41 @@
         <v>13</v>
       </c>
       <c r="F151" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G151" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G151" s="1" t="s">
+      <c r="H151" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I151" s="1">
+        <v>1</v>
+      </c>
+      <c r="J151" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H151" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I151" s="1">
-        <v>1</v>
-      </c>
-      <c r="J151" s="1" t="s">
+      <c r="K151" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="K151" s="1" t="s">
+      <c r="L151" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M151" s="1">
+        <v>1</v>
+      </c>
+      <c r="N151" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="L151" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M151" s="1">
-        <v>1</v>
-      </c>
-      <c r="N151" s="1" t="s">
+      <c r="O151" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P151" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q151" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="O151" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="P151" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q151" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="R151" s="1" t="s">
         <v>34</v>
       </c>
@@ -11918,16 +11925,16 @@
         <v>35</v>
       </c>
       <c r="U151" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="V151" s="2">
-        <v>15.3956</v>
+        <v>14.5922</v>
       </c>
       <c r="W151" s="2">
-        <v>-87.808499999999995</v>
-      </c>
-    </row>
-    <row r="152" spans="1:23">
+        <v>-88.5822</v>
+      </c>
+    </row>
+    <row r="152" spans="1:27">
       <c r="A152" s="1">
         <v>33574</v>
       </c>
@@ -11944,10 +11951,10 @@
         <v>18</v>
       </c>
       <c r="F152" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G152" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>27</v>
@@ -11956,28 +11963,28 @@
         <v>4</v>
       </c>
       <c r="J152" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K152" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="K152" s="1" t="s">
+      <c r="L152" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M152" s="1">
+        <v>1</v>
+      </c>
+      <c r="N152" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L152" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M152" s="1">
-        <v>1</v>
-      </c>
-      <c r="N152" s="1" t="s">
+      <c r="O152" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P152" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q152" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="O152" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="P152" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q152" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="R152" s="1" t="s">
         <v>34</v>
@@ -11989,13 +11996,13 @@
         <v>37</v>
       </c>
       <c r="V152" s="2">
-        <v>15.396100000000001</v>
+        <v>15.3992</v>
       </c>
       <c r="W152" s="2">
-        <v>-87.802400000000006</v>
-      </c>
-    </row>
-    <row r="153" spans="1:23">
+        <v>-87.804299999999998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:27">
       <c r="A153" s="1">
         <v>33581</v>
       </c>
@@ -12012,10 +12019,10 @@
         <v>18</v>
       </c>
       <c r="F153" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G153" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>27</v>
@@ -12024,28 +12031,28 @@
         <v>4</v>
       </c>
       <c r="J153" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K153" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="K153" s="1" t="s">
+      <c r="L153" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M153" s="1">
+        <v>1</v>
+      </c>
+      <c r="N153" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L153" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M153" s="1">
-        <v>1</v>
-      </c>
-      <c r="N153" s="1" t="s">
+      <c r="O153" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P153" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q153" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="O153" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="P153" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q153" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="R153" s="1" t="s">
         <v>34</v>
@@ -12057,13 +12064,13 @@
         <v>104</v>
       </c>
       <c r="V153" s="2">
-        <v>15.3971</v>
+        <v>15.400499999999999</v>
       </c>
       <c r="W153" s="2">
-        <v>-87.814599999999999</v>
-      </c>
-    </row>
-    <row r="154" spans="1:23">
+        <v>-87.809700000000007</v>
+      </c>
+    </row>
+    <row r="154" spans="1:27">
       <c r="A154" s="1">
         <v>33592</v>
       </c>
@@ -12080,10 +12087,10 @@
         <v>18</v>
       </c>
       <c r="F154" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G154" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>27</v>
@@ -12092,28 +12099,28 @@
         <v>4</v>
       </c>
       <c r="J154" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K154" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="K154" s="1" t="s">
+      <c r="L154" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M154" s="1">
+        <v>1</v>
+      </c>
+      <c r="N154" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L154" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M154" s="1">
-        <v>1</v>
-      </c>
-      <c r="N154" s="1" t="s">
+      <c r="O154" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P154" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q154" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="O154" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="P154" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q154" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="R154" s="1" t="s">
         <v>34</v>
@@ -12125,13 +12132,13 @@
         <v>106</v>
       </c>
       <c r="V154" s="2">
-        <v>15.3978</v>
+        <v>15.4011</v>
       </c>
       <c r="W154" s="2">
-        <v>-87.800399999999996</v>
-      </c>
-    </row>
-    <row r="155" spans="1:23">
+        <v>-87.809600000000003</v>
+      </c>
+    </row>
+    <row r="155" spans="1:27">
       <c r="A155" s="1">
         <v>33598</v>
       </c>
@@ -12148,10 +12155,10 @@
         <v>18</v>
       </c>
       <c r="F155" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G155" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>27</v>
@@ -12160,28 +12167,28 @@
         <v>4</v>
       </c>
       <c r="J155" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K155" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="K155" s="1" t="s">
+      <c r="L155" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M155" s="1">
+        <v>1</v>
+      </c>
+      <c r="N155" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L155" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M155" s="1">
-        <v>1</v>
-      </c>
-      <c r="N155" s="1" t="s">
+      <c r="O155" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P155" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q155" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="O155" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="P155" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q155" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="R155" s="1" t="s">
         <v>34</v>
@@ -12193,13 +12200,13 @@
         <v>120</v>
       </c>
       <c r="V155" s="2">
-        <v>15.398099999999999</v>
+        <v>15.401400000000001</v>
       </c>
       <c r="W155" s="2">
-        <v>-87.814400000000006</v>
-      </c>
-    </row>
-    <row r="156" spans="1:23">
+        <v>-87.806600000000003</v>
+      </c>
+    </row>
+    <row r="156" spans="1:27">
       <c r="A156" s="1">
         <v>33636</v>
       </c>
@@ -12216,10 +12223,10 @@
         <v>18</v>
       </c>
       <c r="F156" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G156" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>27</v>
@@ -12228,28 +12235,28 @@
         <v>4</v>
       </c>
       <c r="J156" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K156" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="K156" s="1" t="s">
+      <c r="L156" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M156" s="1">
+        <v>1</v>
+      </c>
+      <c r="N156" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L156" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M156" s="1">
-        <v>1</v>
-      </c>
-      <c r="N156" s="1" t="s">
+      <c r="O156" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P156" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q156" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="O156" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="P156" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q156" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="R156" s="1" t="s">
         <v>34</v>
@@ -12261,13 +12268,13 @@
         <v>104</v>
       </c>
       <c r="V156" s="2">
-        <v>15.398199999999999</v>
+        <v>15.402799999999999</v>
       </c>
       <c r="W156" s="2">
-        <v>-87.801699999999997</v>
-      </c>
-    </row>
-    <row r="157" spans="1:23">
+        <v>-87.806399999999996</v>
+      </c>
+    </row>
+    <row r="157" spans="1:27">
       <c r="A157" s="1">
         <v>33637</v>
       </c>
@@ -12284,10 +12291,10 @@
         <v>18</v>
       </c>
       <c r="F157" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G157" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>27</v>
@@ -12296,28 +12303,28 @@
         <v>4</v>
       </c>
       <c r="J157" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K157" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="K157" s="1" t="s">
+      <c r="L157" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M157" s="1">
+        <v>1</v>
+      </c>
+      <c r="N157" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L157" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M157" s="1">
-        <v>1</v>
-      </c>
-      <c r="N157" s="1" t="s">
+      <c r="O157" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P157" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q157" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="O157" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="P157" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q157" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="R157" s="1" t="s">
         <v>34</v>
@@ -12329,13 +12336,13 @@
         <v>104</v>
       </c>
       <c r="V157" s="2">
-        <v>15.398300000000001</v>
+        <v>15.402900000000001</v>
       </c>
       <c r="W157" s="2">
-        <v>-87.809299999999993</v>
-      </c>
-    </row>
-    <row r="158" spans="1:23">
+        <v>-87.806399999999996</v>
+      </c>
+    </row>
+    <row r="158" spans="1:27">
       <c r="A158" s="1">
         <v>33638</v>
       </c>
@@ -12352,10 +12359,10 @@
         <v>18</v>
       </c>
       <c r="F158" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G158" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>27</v>
@@ -12364,28 +12371,28 @@
         <v>4</v>
       </c>
       <c r="J158" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K158" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="K158" s="1" t="s">
+      <c r="L158" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M158" s="1">
+        <v>1</v>
+      </c>
+      <c r="N158" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L158" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M158" s="1">
-        <v>1</v>
-      </c>
-      <c r="N158" s="1" t="s">
+      <c r="O158" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P158" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q158" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="O158" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="P158" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q158" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="R158" s="1" t="s">
         <v>34</v>
@@ -12397,13 +12404,13 @@
         <v>104</v>
       </c>
       <c r="V158" s="2">
-        <v>15.398300000000001</v>
+        <v>15.402900000000001</v>
       </c>
       <c r="W158" s="2">
-        <v>-87.809299999999993</v>
-      </c>
-    </row>
-    <row r="159" spans="1:23">
+        <v>-87.806399999999996</v>
+      </c>
+    </row>
+    <row r="159" spans="1:27">
       <c r="A159" s="1">
         <v>33647</v>
       </c>
@@ -12420,10 +12427,10 @@
         <v>18</v>
       </c>
       <c r="F159" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G159" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>27</v>
@@ -12432,46 +12439,46 @@
         <v>4</v>
       </c>
       <c r="J159" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K159" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="K159" s="1" t="s">
+      <c r="L159" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M159" s="1">
+        <v>1</v>
+      </c>
+      <c r="N159" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L159" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M159" s="1">
-        <v>1</v>
-      </c>
-      <c r="N159" s="1" t="s">
+      <c r="O159" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P159" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q159" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="O159" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="P159" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q159" s="1" t="s">
+      <c r="R159" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S159" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U159" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="R159" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S159" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U159" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="V159" s="2">
-        <v>15.399100000000001</v>
+        <v>15.403</v>
       </c>
       <c r="W159" s="2">
-        <v>-87.803799999999995</v>
-      </c>
-    </row>
-    <row r="160" spans="1:23">
+        <v>-87.805800000000005</v>
+      </c>
+    </row>
+    <row r="160" spans="1:27">
       <c r="A160" s="1">
         <v>33654</v>
       </c>
@@ -12488,10 +12495,10 @@
         <v>18</v>
       </c>
       <c r="F160" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G160" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>27</v>
@@ -12500,29 +12507,29 @@
         <v>4</v>
       </c>
       <c r="J160" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K160" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="K160" s="1" t="s">
+      <c r="L160" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M160" s="1">
+        <v>1</v>
+      </c>
+      <c r="N160" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L160" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M160" s="1">
-        <v>1</v>
-      </c>
-      <c r="N160" s="1" t="s">
+      <c r="O160" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P160" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q160" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="O160" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="P160" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q160" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="R160" s="1" t="s">
         <v>34</v>
       </c>
@@ -12530,16 +12537,16 @@
         <v>35</v>
       </c>
       <c r="U160" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="V160" s="2">
-        <v>15.3992</v>
+        <v>15.4034</v>
       </c>
       <c r="W160" s="2">
-        <v>-87.804299999999998</v>
-      </c>
-    </row>
-    <row r="161" spans="1:23">
+        <v>-87.798599999999993</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27">
       <c r="A161" s="1">
         <v>33662</v>
       </c>
@@ -12556,10 +12563,10 @@
         <v>18</v>
       </c>
       <c r="F161" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G161" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>27</v>
@@ -12568,28 +12575,28 @@
         <v>4</v>
       </c>
       <c r="J161" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K161" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="K161" s="1" t="s">
+      <c r="L161" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M161" s="1">
+        <v>1</v>
+      </c>
+      <c r="N161" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L161" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M161" s="1">
-        <v>1</v>
-      </c>
-      <c r="N161" s="1" t="s">
+      <c r="O161" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P161" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q161" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="O161" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="P161" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q161" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="R161" s="1" t="s">
         <v>34</v>
@@ -12601,13 +12608,13 @@
         <v>37</v>
       </c>
       <c r="V161" s="2">
-        <v>15.3995</v>
+        <v>15.404199999999999</v>
       </c>
       <c r="W161" s="2">
-        <v>-87.8078</v>
-      </c>
-    </row>
-    <row r="162" spans="1:23">
+        <v>-87.812100000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27" ht="15">
       <c r="A162" s="1">
         <v>33664</v>
       </c>
@@ -12624,10 +12631,10 @@
         <v>18</v>
       </c>
       <c r="F162" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G162" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>27</v>
@@ -12636,28 +12643,28 @@
         <v>4</v>
       </c>
       <c r="J162" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K162" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="K162" s="1" t="s">
+      <c r="L162" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M162" s="1">
+        <v>1</v>
+      </c>
+      <c r="N162" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L162" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M162" s="1">
-        <v>1</v>
-      </c>
-      <c r="N162" s="1" t="s">
+      <c r="O162" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P162" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q162" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="O162" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="P162" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q162" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="R162" s="1" t="s">
         <v>34</v>
@@ -12669,11 +12676,12 @@
         <v>62</v>
       </c>
       <c r="V162" s="2">
-        <v>15.399699999999999</v>
+        <v>15.404500000000001</v>
       </c>
       <c r="W162" s="2">
-        <v>-87.811000000000007</v>
-      </c>
+        <v>-87.808999999999997</v>
+      </c>
+      <c r="AA162" s="8"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U162">

--- a/datacovidhn/FARMACIAS_HN.xlsx
+++ b/datacovidhn/FARMACIAS_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="639" documentId="8_{916CAA4F-0C4B-41B0-9C01-872BC023B4EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{133B870B-09C0-4216-8C99-C73D3287A0DA}"/>
+  <xr:revisionPtr revIDLastSave="747" documentId="8_{916CAA4F-0C4B-41B0-9C01-872BC023B4EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{10B773EB-B235-4AB2-8838-26CAE9EE7CA5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="FARMACIAS" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FARMACIAS!$A$1:$W$179</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FARMACIAS!$A$1:$W$190</definedName>
     <definedName name="_xlnm.Database">FARMACIAS!$A$1:$U$160</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2824" uniqueCount="246">
   <si>
     <t>OBJECTID_1</t>
   </si>
@@ -697,6 +697,81 @@
   </si>
   <si>
     <t>FarmaCity Calle 21 de agosto</t>
+  </si>
+  <si>
+    <t>Gracias a Dios</t>
+  </si>
+  <si>
+    <t>Puerto Lempira</t>
+  </si>
+  <si>
+    <t>HND-0901</t>
+  </si>
+  <si>
+    <t>Clinica medica JOZAM</t>
+  </si>
+  <si>
+    <t>Olancho</t>
+  </si>
+  <si>
+    <t>Catacamas</t>
+  </si>
+  <si>
+    <t>HND-1503</t>
+  </si>
+  <si>
+    <t>Farmacia y Clínica Eva</t>
+  </si>
+  <si>
+    <t>La union</t>
+  </si>
+  <si>
+    <t>La Union</t>
+  </si>
+  <si>
+    <t>HND-1513</t>
+  </si>
+  <si>
+    <t>Farmacia Regis La Unión</t>
+  </si>
+  <si>
+    <t>Dulce Nombre de Culmi</t>
+  </si>
+  <si>
+    <t>HND-1505</t>
+  </si>
+  <si>
+    <t>Farmacia Regis Culmi</t>
+  </si>
+  <si>
+    <t>Gualaco</t>
+  </si>
+  <si>
+    <t>HND-1508</t>
+  </si>
+  <si>
+    <t>Farmatodo</t>
+  </si>
+  <si>
+    <t>Farmacia Sol Farma</t>
+  </si>
+  <si>
+    <t>Farmacia Regis Gualaco</t>
+  </si>
+  <si>
+    <t>Juticalpa</t>
+  </si>
+  <si>
+    <t>HND-1501</t>
+  </si>
+  <si>
+    <t>Farmacia Santa Gertrudis</t>
+  </si>
+  <si>
+    <t>Farmacias del ahorro #88</t>
+  </si>
+  <si>
+    <t>Farmacia Y Clinica Samaritana</t>
   </si>
 </sst>
 </file>
@@ -1357,8 +1432,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F90EE072-0F9D-4F60-9697-FDBBEB228828}" name="FARMACIAS_HN" displayName="FARMACIAS_HN" ref="A1:W179" totalsRowShown="0" headerRowDxfId="23">
-  <autoFilter ref="A1:W179" xr:uid="{56D59612-14DD-44E0-B196-D6BA93C03EE3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F90EE072-0F9D-4F60-9697-FDBBEB228828}" name="FARMACIAS_HN" displayName="FARMACIAS_HN" ref="A1:W190" totalsRowShown="0" headerRowDxfId="23">
+  <autoFilter ref="A1:W190" xr:uid="{56D59612-14DD-44E0-B196-D6BA93C03EE3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W160">
     <sortCondition ref="A1:A160"/>
   </sortState>
@@ -1688,11 +1763,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA185"/>
+  <dimension ref="A1:AA190"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="P167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F172" sqref="F172"/>
+      <pane ySplit="1" topLeftCell="P177" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V190" sqref="V190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -13371,8 +13446,8 @@
       <c r="E172" s="1">
         <v>3</v>
       </c>
-      <c r="F172" s="1">
-        <v>3</v>
+      <c r="F172" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>80</v>
@@ -13899,11 +13974,754 @@
         <v>-87.840956000000006</v>
       </c>
     </row>
+    <row r="180" spans="1:23">
+      <c r="A180" s="1">
+        <v>50020</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D180" s="1">
+        <v>3</v>
+      </c>
+      <c r="E180" s="1">
+        <v>9</v>
+      </c>
+      <c r="F180" s="1">
+        <v>9</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I180" s="1">
+        <v>1</v>
+      </c>
+      <c r="J180" s="1">
+        <v>901</v>
+      </c>
+      <c r="K180" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L180" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M180" s="1">
+        <v>1</v>
+      </c>
+      <c r="N180" s="1">
+        <v>90101</v>
+      </c>
+      <c r="O180" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="P180" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q180" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="R180" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S180" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U180" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="V180" s="2">
+        <v>15.257429999999999</v>
+      </c>
+      <c r="W180" s="2">
+        <v>-83.780617000000007</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23">
+      <c r="A181" s="1">
+        <v>50021</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D181" s="1">
+        <v>3</v>
+      </c>
+      <c r="E181" s="1">
+        <v>9</v>
+      </c>
+      <c r="F181" s="1">
+        <v>9</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I181" s="1">
+        <v>1</v>
+      </c>
+      <c r="J181" s="1">
+        <v>901</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L181" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M181" s="1">
+        <v>1</v>
+      </c>
+      <c r="N181" s="1">
+        <v>90101</v>
+      </c>
+      <c r="O181" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="P181" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q181" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="R181" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S181" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U181" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="V181" s="2">
+        <v>15.266281599999999</v>
+      </c>
+      <c r="W181" s="2">
+        <v>-83.772572199999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23">
+      <c r="A182" s="1">
+        <v>50022</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D182" s="1">
+        <v>3</v>
+      </c>
+      <c r="E182" s="1">
+        <v>15</v>
+      </c>
+      <c r="F182" s="1">
+        <v>15</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I182" s="1">
+        <v>3</v>
+      </c>
+      <c r="J182" s="1">
+        <v>1503</v>
+      </c>
+      <c r="K182" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L182" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M182" s="1">
+        <v>1</v>
+      </c>
+      <c r="N182" s="1">
+        <v>150301</v>
+      </c>
+      <c r="O182" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="P182" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q182" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="R182" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S182" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U182" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="V182" s="2">
+        <v>14.8959817</v>
+      </c>
+      <c r="W182" s="2">
+        <v>-85.7856022</v>
+      </c>
+    </row>
     <row r="183" spans="1:23" ht="15">
-      <c r="T183" s="9"/>
-    </row>
-    <row r="184" spans="1:23" ht="15"/>
-    <row r="185" spans="1:23" ht="15"/>
+      <c r="A183" s="1">
+        <v>50023</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D183" s="1">
+        <v>3</v>
+      </c>
+      <c r="E183" s="1">
+        <v>15</v>
+      </c>
+      <c r="F183" s="1">
+        <v>15</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I183" s="1">
+        <v>13</v>
+      </c>
+      <c r="J183" s="1">
+        <v>1503</v>
+      </c>
+      <c r="K183" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L183" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M183" s="1">
+        <v>1</v>
+      </c>
+      <c r="N183" s="1">
+        <v>151301</v>
+      </c>
+      <c r="O183" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="P183" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q183" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="R183" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S183" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U183" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="V183" s="2">
+        <v>15.022712</v>
+      </c>
+      <c r="W183" s="2">
+        <v>-86.709926899999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" ht="15">
+      <c r="A184" s="1">
+        <v>50024</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D184" s="1">
+        <v>3</v>
+      </c>
+      <c r="E184" s="1">
+        <v>15</v>
+      </c>
+      <c r="F184" s="1">
+        <v>15</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I184" s="1">
+        <v>5</v>
+      </c>
+      <c r="J184" s="1">
+        <v>1503</v>
+      </c>
+      <c r="K184" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="L184" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M184" s="1">
+        <v>1</v>
+      </c>
+      <c r="N184" s="1">
+        <v>150501</v>
+      </c>
+      <c r="O184" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="P184" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q184" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="R184" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S184" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U184" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="V184" s="2">
+        <v>15.0837658</v>
+      </c>
+      <c r="W184" s="2">
+        <v>-85.556933099999995</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23" ht="15">
+      <c r="A185" s="1">
+        <v>50025</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D185" s="1">
+        <v>3</v>
+      </c>
+      <c r="E185" s="1">
+        <v>15</v>
+      </c>
+      <c r="F185" s="1">
+        <v>15</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I185" s="1">
+        <v>8</v>
+      </c>
+      <c r="J185" s="1">
+        <v>1508</v>
+      </c>
+      <c r="K185" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L185" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M185" s="1">
+        <v>1</v>
+      </c>
+      <c r="N185" s="1">
+        <v>150801</v>
+      </c>
+      <c r="O185" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="P185" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q185" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="R185" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S185" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U185" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="V185" s="2">
+        <v>15.025620699999999</v>
+      </c>
+      <c r="W185" s="2">
+        <v>-86.071155000000005</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23">
+      <c r="A186" s="1">
+        <v>50026</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D186" s="1">
+        <v>3</v>
+      </c>
+      <c r="E186" s="1">
+        <v>15</v>
+      </c>
+      <c r="F186" s="1">
+        <v>15</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I186" s="1">
+        <v>8</v>
+      </c>
+      <c r="J186" s="1">
+        <v>1508</v>
+      </c>
+      <c r="K186" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M186" s="1">
+        <v>1</v>
+      </c>
+      <c r="N186" s="1">
+        <v>150801</v>
+      </c>
+      <c r="O186" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="P186" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q186" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="R186" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S186" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U186" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="V186" s="2">
+        <v>15.023555399999999</v>
+      </c>
+      <c r="W186" s="2">
+        <v>-86.069538199999997</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23">
+      <c r="A187" s="1">
+        <v>50027</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D187" s="1">
+        <v>3</v>
+      </c>
+      <c r="E187" s="1">
+        <v>15</v>
+      </c>
+      <c r="F187" s="1">
+        <v>15</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I187" s="1">
+        <v>8</v>
+      </c>
+      <c r="J187" s="1">
+        <v>1508</v>
+      </c>
+      <c r="K187" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L187" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M187" s="1">
+        <v>1</v>
+      </c>
+      <c r="N187" s="1">
+        <v>150801</v>
+      </c>
+      <c r="O187" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="P187" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q187" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="R187" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S187" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U187" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="V187" s="2">
+        <v>15.027041000000001</v>
+      </c>
+      <c r="W187" s="2">
+        <v>-86.070589999999996</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23">
+      <c r="A188" s="1">
+        <v>50028</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D188" s="1">
+        <v>3</v>
+      </c>
+      <c r="E188" s="1">
+        <v>15</v>
+      </c>
+      <c r="F188" s="1">
+        <v>15</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I188" s="1">
+        <v>1</v>
+      </c>
+      <c r="J188" s="1">
+        <v>1501</v>
+      </c>
+      <c r="K188" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L188" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M188" s="1">
+        <v>1</v>
+      </c>
+      <c r="N188" s="1">
+        <v>150101</v>
+      </c>
+      <c r="O188" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P188" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q188" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="R188" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S188" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U188" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="V188" s="2">
+        <v>14.670859399999999</v>
+      </c>
+      <c r="W188" s="2">
+        <v>-86.220775200000006</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23">
+      <c r="A189" s="1">
+        <v>50029</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D189" s="1">
+        <v>3</v>
+      </c>
+      <c r="E189" s="1">
+        <v>15</v>
+      </c>
+      <c r="F189" s="1">
+        <v>15</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I189" s="1">
+        <v>3</v>
+      </c>
+      <c r="J189" s="1">
+        <v>1503</v>
+      </c>
+      <c r="K189" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L189" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M189" s="1">
+        <v>1</v>
+      </c>
+      <c r="N189" s="1">
+        <v>150301</v>
+      </c>
+      <c r="O189" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P189" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q189" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="R189" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S189" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U189" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="V189" s="2">
+        <v>14.8461187</v>
+      </c>
+      <c r="W189" s="2">
+        <v>-85.890722999999994</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23">
+      <c r="A190" s="1">
+        <v>50030</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D190" s="1">
+        <v>3</v>
+      </c>
+      <c r="E190" s="1">
+        <v>15</v>
+      </c>
+      <c r="F190" s="1">
+        <v>15</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I190" s="1">
+        <v>3</v>
+      </c>
+      <c r="J190" s="1">
+        <v>1503</v>
+      </c>
+      <c r="K190" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L190" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M190" s="1">
+        <v>1</v>
+      </c>
+      <c r="N190" s="1">
+        <v>150301</v>
+      </c>
+      <c r="O190" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P190" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q190" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="R190" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S190" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U190" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="V190" s="2">
+        <v>14.8461187</v>
+      </c>
+      <c r="W190" s="2">
+        <v>-85.896107000000001</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U160">
     <sortCondition ref="R2:R160"/>

--- a/datacovidhn/FARMACIAS_HN.xlsx
+++ b/datacovidhn/FARMACIAS_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="747" documentId="8_{916CAA4F-0C4B-41B0-9C01-872BC023B4EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{10B773EB-B235-4AB2-8838-26CAE9EE7CA5}"/>
+  <xr:revisionPtr revIDLastSave="1076" documentId="8_{916CAA4F-0C4B-41B0-9C01-872BC023B4EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E23114E6-42EE-4963-A0BA-734DCF680552}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="FARMACIAS" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FARMACIAS!$A$1:$W$190</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FARMACIAS!$A$1:$W$233</definedName>
     <definedName name="_xlnm.Database">FARMACIAS!$A$1:$U$160</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2824" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3340" uniqueCount="287">
   <si>
     <t>OBJECTID_1</t>
   </si>
@@ -772,6 +772,129 @@
   </si>
   <si>
     <t>Farmacia Y Clinica Samaritana</t>
+  </si>
+  <si>
+    <t>Farmacia Simán El Castaño</t>
+  </si>
+  <si>
+    <t>Farmacia Siman Blvd Los Poetas</t>
+  </si>
+  <si>
+    <t>farmacia santa teresa</t>
+  </si>
+  <si>
+    <t>San Francisco de la Paz</t>
+  </si>
+  <si>
+    <t>HND-1519</t>
+  </si>
+  <si>
+    <t>Farmacia Humana</t>
+  </si>
+  <si>
+    <t>San Esteban</t>
+  </si>
+  <si>
+    <t>HND-1517</t>
+  </si>
+  <si>
+    <t>FARMACIA REGIS 1</t>
+  </si>
+  <si>
+    <t>Farmacia San Pedro</t>
+  </si>
+  <si>
+    <t>Farmacia Barahona</t>
+  </si>
+  <si>
+    <t>Farmacia Simán Catacamas #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Juticalpa</t>
+  </si>
+  <si>
+    <t>Farmacias del Ahorro #3</t>
+  </si>
+  <si>
+    <t>Farmacia Central</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La Unión</t>
+  </si>
+  <si>
+    <t>Farmacia Regis La Union Olancho</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> San Esteban</t>
+  </si>
+  <si>
+    <t>FARMACIA REGIS 2 SAN ESTEBAN</t>
+  </si>
+  <si>
+    <t>Farmacia Catacamas N.1</t>
+  </si>
+  <si>
+    <t>Farmacia Catacamas N.2</t>
+  </si>
+  <si>
+    <t>Farmacia Mishel</t>
+  </si>
+  <si>
+    <t>Farmacia Pharmavida</t>
+  </si>
+  <si>
+    <t>Guarizama</t>
+  </si>
+  <si>
+    <t>HND-1509</t>
+  </si>
+  <si>
+    <t>Comedor Y Farmacias Meylin</t>
+  </si>
+  <si>
+    <t>Farmacia Simán Juticalpa Barrio El Centro</t>
+  </si>
+  <si>
+    <t>Farmacia Simán Juticalpa Plaza Miromar</t>
+  </si>
+  <si>
+    <t>Farmacia Santa Fe</t>
+  </si>
+  <si>
+    <t>Farmacias del Ahorro Juticalpa 3</t>
+  </si>
+  <si>
+    <t>Farmacia del Ahorro</t>
+  </si>
+  <si>
+    <t>Farmacia Juticalpa</t>
+  </si>
+  <si>
+    <t>Farmacia Los Angeles</t>
+  </si>
+  <si>
+    <t>Farmacia Romely</t>
+  </si>
+  <si>
+    <t>Farmacia San Francisco</t>
+  </si>
+  <si>
+    <t>Farmacia Simán Juticalpa Blvd. Los Próceres</t>
+  </si>
+  <si>
+    <t>Farmacia Siman</t>
+  </si>
+  <si>
+    <t>Farmacia Suyapa #1</t>
+  </si>
+  <si>
+    <t>Farmacias Del Ahorro</t>
+  </si>
+  <si>
+    <t>Santa Maria del Real</t>
+  </si>
+  <si>
+    <t>HND-1520</t>
   </si>
 </sst>
 </file>
@@ -1432,8 +1555,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F90EE072-0F9D-4F60-9697-FDBBEB228828}" name="FARMACIAS_HN" displayName="FARMACIAS_HN" ref="A1:W190" totalsRowShown="0" headerRowDxfId="23">
-  <autoFilter ref="A1:W190" xr:uid="{56D59612-14DD-44E0-B196-D6BA93C03EE3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F90EE072-0F9D-4F60-9697-FDBBEB228828}" name="FARMACIAS_HN" displayName="FARMACIAS_HN" ref="A1:W233" totalsRowShown="0" headerRowDxfId="23">
+  <autoFilter ref="A1:W233" xr:uid="{56D59612-14DD-44E0-B196-D6BA93C03EE3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W160">
     <sortCondition ref="A1:A160"/>
   </sortState>
@@ -1763,11 +1886,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA190"/>
+  <dimension ref="A1:AA235"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="P177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V190" sqref="V190"/>
+      <pane ySplit="1" topLeftCell="Q223" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S235" sqref="S235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -14618,7 +14741,7 @@
         <v>1503</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="L189" s="1" t="s">
         <v>30</v>
@@ -14630,7 +14753,7 @@
         <v>150301</v>
       </c>
       <c r="O189" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="P189" s="1" t="s">
         <v>33</v>
@@ -14686,7 +14809,7 @@
         <v>1503</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="L190" s="1" t="s">
         <v>30</v>
@@ -14698,7 +14821,7 @@
         <v>150301</v>
       </c>
       <c r="O190" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="P190" s="1" t="s">
         <v>33</v>
@@ -14716,11 +14839,2938 @@
         <v>245</v>
       </c>
       <c r="V190" s="2">
-        <v>14.8461187</v>
+        <v>14.850028</v>
       </c>
       <c r="W190" s="2">
         <v>-85.896107000000001</v>
       </c>
+    </row>
+    <row r="191" spans="1:23">
+      <c r="A191" s="1">
+        <v>50031</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D191" s="1">
+        <v>3</v>
+      </c>
+      <c r="E191" s="1">
+        <v>15</v>
+      </c>
+      <c r="F191" s="1">
+        <v>15</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I191" s="1">
+        <v>1</v>
+      </c>
+      <c r="J191" s="1">
+        <v>1501</v>
+      </c>
+      <c r="K191" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L191" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M191" s="1">
+        <v>1</v>
+      </c>
+      <c r="N191" s="1">
+        <v>150101</v>
+      </c>
+      <c r="O191" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P191" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q191" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="R191" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S191" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U191" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="V191" s="2">
+        <v>14.6652643</v>
+      </c>
+      <c r="W191" s="2">
+        <v>-86.215434599999995</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23">
+      <c r="A192" s="1">
+        <v>50032</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D192" s="1">
+        <v>3</v>
+      </c>
+      <c r="E192" s="1">
+        <v>15</v>
+      </c>
+      <c r="F192" s="1">
+        <v>15</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I192" s="1">
+        <v>1</v>
+      </c>
+      <c r="J192" s="1">
+        <v>1501</v>
+      </c>
+      <c r="K192" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L192" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M192" s="1">
+        <v>1</v>
+      </c>
+      <c r="N192" s="1">
+        <v>150101</v>
+      </c>
+      <c r="O192" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P192" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q192" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="R192" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S192" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U192" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="V192" s="2">
+        <v>14.6666597</v>
+      </c>
+      <c r="W192" s="2">
+        <v>-86.217124400000003</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23">
+      <c r="A193" s="1">
+        <v>50033</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D193" s="1">
+        <v>3</v>
+      </c>
+      <c r="E193" s="1">
+        <v>15</v>
+      </c>
+      <c r="F193" s="1">
+        <v>15</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I193" s="1">
+        <v>1</v>
+      </c>
+      <c r="J193" s="1">
+        <v>1501</v>
+      </c>
+      <c r="K193" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L193" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M193" s="1">
+        <v>1</v>
+      </c>
+      <c r="N193" s="1">
+        <v>150101</v>
+      </c>
+      <c r="O193" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P193" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q193" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="R193" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S193" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U193" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="V193" s="2">
+        <v>14.670673000000001</v>
+      </c>
+      <c r="W193" s="2">
+        <v>-86.218761299999997</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23">
+      <c r="A194" s="1">
+        <v>50034</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D194" s="1">
+        <v>3</v>
+      </c>
+      <c r="E194" s="1">
+        <v>15</v>
+      </c>
+      <c r="F194" s="1">
+        <v>15</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I194" s="1">
+        <v>19</v>
+      </c>
+      <c r="J194" s="1">
+        <v>1519</v>
+      </c>
+      <c r="K194" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L194" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M194" s="1">
+        <v>1</v>
+      </c>
+      <c r="N194" s="1">
+        <v>151901</v>
+      </c>
+      <c r="O194" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="P194" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q194" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="R194" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S194" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U194" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V194" s="2">
+        <v>14.7413898</v>
+      </c>
+      <c r="W194" s="2">
+        <v>-86.0980481</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23">
+      <c r="A195" s="1">
+        <v>50035</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D195" s="1">
+        <v>3</v>
+      </c>
+      <c r="E195" s="1">
+        <v>15</v>
+      </c>
+      <c r="F195" s="1">
+        <v>15</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I195" s="1">
+        <v>1</v>
+      </c>
+      <c r="J195" s="1">
+        <v>1501</v>
+      </c>
+      <c r="K195" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L195" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M195" s="1">
+        <v>1</v>
+      </c>
+      <c r="N195" s="1">
+        <v>150101</v>
+      </c>
+      <c r="O195" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P195" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q195" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="R195" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S195" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U195" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="V195" s="2">
+        <v>14.669445899999999</v>
+      </c>
+      <c r="W195" s="2">
+        <v>-86.217833799999994</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23">
+      <c r="A196" s="1">
+        <v>50036</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D196" s="1">
+        <v>3</v>
+      </c>
+      <c r="E196" s="1">
+        <v>15</v>
+      </c>
+      <c r="F196" s="1">
+        <v>15</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I196" s="1">
+        <v>1</v>
+      </c>
+      <c r="J196" s="1">
+        <v>1501</v>
+      </c>
+      <c r="K196" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L196" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M196" s="1">
+        <v>1</v>
+      </c>
+      <c r="N196" s="1">
+        <v>150101</v>
+      </c>
+      <c r="O196" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P196" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q196" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="R196" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S196" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U196" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V196" s="2">
+        <v>14.6658057</v>
+      </c>
+      <c r="W196" s="2">
+        <v>-86.216798199999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23">
+      <c r="A197" s="1">
+        <v>50037</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D197" s="1">
+        <v>3</v>
+      </c>
+      <c r="E197" s="1">
+        <v>15</v>
+      </c>
+      <c r="F197" s="1">
+        <v>15</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I197" s="1">
+        <v>17</v>
+      </c>
+      <c r="J197" s="1">
+        <v>1517</v>
+      </c>
+      <c r="K197" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="L197" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M197" s="1">
+        <v>1</v>
+      </c>
+      <c r="N197" s="1">
+        <v>151701</v>
+      </c>
+      <c r="O197" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="P197" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q197" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="R197" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S197" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U197" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="V197" s="2">
+        <v>15.213376999999999</v>
+      </c>
+      <c r="W197" s="2">
+        <v>-85.773096699999996</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23">
+      <c r="A198" s="1">
+        <v>50038</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D198" s="1">
+        <v>3</v>
+      </c>
+      <c r="E198" s="1">
+        <v>15</v>
+      </c>
+      <c r="F198" s="1">
+        <v>15</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I198" s="1">
+        <v>3</v>
+      </c>
+      <c r="J198" s="1">
+        <v>1503</v>
+      </c>
+      <c r="K198" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L198" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M198" s="1">
+        <v>1</v>
+      </c>
+      <c r="N198" s="1">
+        <v>150301</v>
+      </c>
+      <c r="O198" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="P198" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q198" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="R198" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S198" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U198" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="V198" s="2">
+        <v>14.850630000000001</v>
+      </c>
+      <c r="W198" s="2">
+        <v>-85.893458499999994</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23">
+      <c r="A199" s="1">
+        <v>50040</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D199" s="1">
+        <v>3</v>
+      </c>
+      <c r="E199" s="1">
+        <v>15</v>
+      </c>
+      <c r="F199" s="1">
+        <v>15</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I199" s="1">
+        <v>3</v>
+      </c>
+      <c r="J199" s="1">
+        <v>1503</v>
+      </c>
+      <c r="K199" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L199" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M199" s="1">
+        <v>1</v>
+      </c>
+      <c r="N199" s="1">
+        <v>150301</v>
+      </c>
+      <c r="O199" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="P199" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q199" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="R199" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S199" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U199" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V199" s="2">
+        <v>14.8499228</v>
+      </c>
+      <c r="W199" s="2">
+        <v>-85.893797800000002</v>
+      </c>
+    </row>
+    <row r="200" spans="1:23">
+      <c r="A200" s="1">
+        <v>50041</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D200" s="1">
+        <v>3</v>
+      </c>
+      <c r="E200" s="1">
+        <v>15</v>
+      </c>
+      <c r="F200" s="1">
+        <v>15</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I200" s="1">
+        <v>3</v>
+      </c>
+      <c r="J200" s="1">
+        <v>1503</v>
+      </c>
+      <c r="K200" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L200" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M200" s="1">
+        <v>1</v>
+      </c>
+      <c r="N200" s="1">
+        <v>150301</v>
+      </c>
+      <c r="O200" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="P200" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q200" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="R200" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S200" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U200" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="V200" s="2">
+        <v>14.852676000000001</v>
+      </c>
+      <c r="W200" s="2">
+        <v>-85.897805500000004</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23">
+      <c r="A201" s="1">
+        <v>50042</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D201" s="1">
+        <v>3</v>
+      </c>
+      <c r="E201" s="1">
+        <v>15</v>
+      </c>
+      <c r="F201" s="1">
+        <v>15</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I201" s="1">
+        <v>3</v>
+      </c>
+      <c r="J201" s="1">
+        <v>1503</v>
+      </c>
+      <c r="K201" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L201" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M201" s="1">
+        <v>1</v>
+      </c>
+      <c r="N201" s="1">
+        <v>150301</v>
+      </c>
+      <c r="O201" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="P201" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q201" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="R201" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S201" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U201" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="V201" s="2">
+        <v>14.8465714</v>
+      </c>
+      <c r="W201" s="2">
+        <v>-85.901921200000004</v>
+      </c>
+    </row>
+    <row r="202" spans="1:23">
+      <c r="A202" s="1">
+        <v>50043</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D202" s="1">
+        <v>3</v>
+      </c>
+      <c r="E202" s="1">
+        <v>15</v>
+      </c>
+      <c r="F202" s="1">
+        <v>15</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I202" s="1">
+        <v>1</v>
+      </c>
+      <c r="J202" s="1">
+        <v>1501</v>
+      </c>
+      <c r="K202" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L202" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M202" s="1">
+        <v>1</v>
+      </c>
+      <c r="N202" s="1">
+        <v>150101</v>
+      </c>
+      <c r="O202" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="P202" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q202" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="R202" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S202" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U202" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V202" s="2">
+        <v>14.6666969</v>
+      </c>
+      <c r="W202" s="2">
+        <v>-86.217067700000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23">
+      <c r="A203" s="1">
+        <v>50044</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D203" s="1">
+        <v>3</v>
+      </c>
+      <c r="E203" s="1">
+        <v>15</v>
+      </c>
+      <c r="F203" s="1">
+        <v>15</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I203" s="1">
+        <v>1</v>
+      </c>
+      <c r="J203" s="1">
+        <v>1501</v>
+      </c>
+      <c r="K203" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L203" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M203" s="1">
+        <v>1</v>
+      </c>
+      <c r="N203" s="1">
+        <v>150101</v>
+      </c>
+      <c r="O203" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="P203" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q203" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="R203" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S203" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U203" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="V203" s="2">
+        <v>14.6703492</v>
+      </c>
+      <c r="W203" s="2">
+        <v>-86.219092799999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23">
+      <c r="A204" s="1">
+        <v>50045</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D204" s="1">
+        <v>3</v>
+      </c>
+      <c r="E204" s="1">
+        <v>15</v>
+      </c>
+      <c r="F204" s="1">
+        <v>15</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I204" s="1">
+        <v>1</v>
+      </c>
+      <c r="J204" s="1">
+        <v>1501</v>
+      </c>
+      <c r="K204" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L204" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M204" s="1">
+        <v>1</v>
+      </c>
+      <c r="N204" s="1">
+        <v>150101</v>
+      </c>
+      <c r="O204" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="P204" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q204" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="R204" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S204" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U204" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="V204" s="2">
+        <v>14.6705594</v>
+      </c>
+      <c r="W204" s="2">
+        <v>-86.210598099999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23">
+      <c r="A205" s="1">
+        <v>50046</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D205" s="1">
+        <v>3</v>
+      </c>
+      <c r="E205" s="1">
+        <v>15</v>
+      </c>
+      <c r="F205" s="1">
+        <v>15</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I205" s="1">
+        <v>1</v>
+      </c>
+      <c r="J205" s="1">
+        <v>1501</v>
+      </c>
+      <c r="K205" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L205" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M205" s="1">
+        <v>1</v>
+      </c>
+      <c r="N205" s="1">
+        <v>150101</v>
+      </c>
+      <c r="O205" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="P205" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q205" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="R205" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S205" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U205" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="V205" s="2">
+        <v>14.670534999999999</v>
+      </c>
+      <c r="W205" s="2">
+        <v>-86.219764699999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:23">
+      <c r="A206" s="1">
+        <v>50047</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D206" s="1">
+        <v>3</v>
+      </c>
+      <c r="E206" s="1">
+        <v>15</v>
+      </c>
+      <c r="F206" s="1">
+        <v>15</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I206" s="1">
+        <v>13</v>
+      </c>
+      <c r="J206" s="1">
+        <v>1513</v>
+      </c>
+      <c r="K206" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="L206" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M206" s="1">
+        <v>1</v>
+      </c>
+      <c r="N206" s="1">
+        <v>151301</v>
+      </c>
+      <c r="O206" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="P206" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q206" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="R206" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S206" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U206" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="V206" s="2">
+        <v>15.0225922</v>
+      </c>
+      <c r="W206" s="2">
+        <v>-86.709874200000002</v>
+      </c>
+    </row>
+    <row r="207" spans="1:23">
+      <c r="A207" s="1">
+        <v>50048</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D207" s="1">
+        <v>3</v>
+      </c>
+      <c r="E207" s="1">
+        <v>15</v>
+      </c>
+      <c r="F207" s="1">
+        <v>15</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I207" s="1">
+        <v>17</v>
+      </c>
+      <c r="J207" s="1">
+        <v>1517</v>
+      </c>
+      <c r="K207" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L207" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M207" s="1">
+        <v>1</v>
+      </c>
+      <c r="N207" s="1">
+        <v>151701</v>
+      </c>
+      <c r="O207" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="P207" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q207" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="R207" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S207" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U207" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="V207" s="2">
+        <v>15.211404699999999</v>
+      </c>
+      <c r="W207" s="2">
+        <v>-85.771201599999998</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23">
+      <c r="A208" s="1">
+        <v>50049</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D208" s="1">
+        <v>3</v>
+      </c>
+      <c r="E208" s="1">
+        <v>15</v>
+      </c>
+      <c r="F208" s="1">
+        <v>15</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I208" s="1">
+        <v>3</v>
+      </c>
+      <c r="J208" s="1">
+        <v>1503</v>
+      </c>
+      <c r="K208" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L208" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M208" s="1">
+        <v>1</v>
+      </c>
+      <c r="N208" s="1">
+        <v>150301</v>
+      </c>
+      <c r="O208" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="P208" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q208" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="R208" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S208" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U208" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="V208" s="2">
+        <v>14.847903799999999</v>
+      </c>
+      <c r="W208" s="2">
+        <v>-85.894117399999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23">
+      <c r="A209" s="1">
+        <v>50050</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D209" s="1">
+        <v>3</v>
+      </c>
+      <c r="E209" s="1">
+        <v>15</v>
+      </c>
+      <c r="F209" s="1">
+        <v>15</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I209" s="1">
+        <v>3</v>
+      </c>
+      <c r="J209" s="1">
+        <v>1503</v>
+      </c>
+      <c r="K209" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L209" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M209" s="1">
+        <v>1</v>
+      </c>
+      <c r="N209" s="1">
+        <v>150301</v>
+      </c>
+      <c r="O209" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="P209" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q209" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="R209" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S209" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U209" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="V209" s="2">
+        <v>14.850289</v>
+      </c>
+      <c r="W209" s="2">
+        <v>-85.897228699999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23">
+      <c r="A210" s="1">
+        <v>50051</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D210" s="1">
+        <v>3</v>
+      </c>
+      <c r="E210" s="1">
+        <v>15</v>
+      </c>
+      <c r="F210" s="1">
+        <v>15</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I210" s="1">
+        <v>3</v>
+      </c>
+      <c r="J210" s="1">
+        <v>1503</v>
+      </c>
+      <c r="K210" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L210" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M210" s="1">
+        <v>1</v>
+      </c>
+      <c r="N210" s="1">
+        <v>150301</v>
+      </c>
+      <c r="O210" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="P210" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q210" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="R210" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S210" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U210" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="V210" s="2">
+        <v>14.8437223</v>
+      </c>
+      <c r="W210" s="2">
+        <v>-85.879325199999997</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23">
+      <c r="A211" s="1">
+        <v>50052</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D211" s="1">
+        <v>3</v>
+      </c>
+      <c r="E211" s="1">
+        <v>15</v>
+      </c>
+      <c r="F211" s="1">
+        <v>15</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I211" s="1">
+        <v>3</v>
+      </c>
+      <c r="J211" s="1">
+        <v>1503</v>
+      </c>
+      <c r="K211" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L211" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M211" s="1">
+        <v>1</v>
+      </c>
+      <c r="N211" s="1">
+        <v>150301</v>
+      </c>
+      <c r="O211" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="P211" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q211" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="R211" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S211" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U211" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="V211" s="2">
+        <v>14.846057800000001</v>
+      </c>
+      <c r="W211" s="2">
+        <v>-85.892754800000006</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23">
+      <c r="A212" s="1">
+        <v>50053</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D212" s="1">
+        <v>3</v>
+      </c>
+      <c r="E212" s="1">
+        <v>15</v>
+      </c>
+      <c r="F212" s="1">
+        <v>15</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I212" s="1">
+        <v>3</v>
+      </c>
+      <c r="J212" s="1">
+        <v>1503</v>
+      </c>
+      <c r="K212" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L212" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M212" s="1">
+        <v>1</v>
+      </c>
+      <c r="N212" s="1">
+        <v>150301</v>
+      </c>
+      <c r="O212" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="P212" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q212" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="R212" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S212" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U212" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V212" s="2">
+        <v>14.8511802</v>
+      </c>
+      <c r="W212" s="2">
+        <v>-85.893879600000005</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23">
+      <c r="A213" s="1">
+        <v>50054</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D213" s="1">
+        <v>3</v>
+      </c>
+      <c r="E213" s="1">
+        <v>15</v>
+      </c>
+      <c r="F213" s="1">
+        <v>15</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I213" s="1">
+        <v>3</v>
+      </c>
+      <c r="J213" s="1">
+        <v>1503</v>
+      </c>
+      <c r="K213" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L213" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M213" s="1">
+        <v>1</v>
+      </c>
+      <c r="N213" s="1">
+        <v>150301</v>
+      </c>
+      <c r="O213" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="P213" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q213" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="R213" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S213" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U213" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V213" s="2">
+        <v>14.8493031</v>
+      </c>
+      <c r="W213" s="2">
+        <v>-85.894384900000006</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23">
+      <c r="A214" s="1">
+        <v>50055</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D214" s="1">
+        <v>3</v>
+      </c>
+      <c r="E214" s="1">
+        <v>15</v>
+      </c>
+      <c r="F214" s="1">
+        <v>15</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I214" s="1">
+        <v>9</v>
+      </c>
+      <c r="J214" s="1">
+        <v>1509</v>
+      </c>
+      <c r="K214" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="L214" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M214" s="1">
+        <v>1</v>
+      </c>
+      <c r="N214" s="1">
+        <v>150901</v>
+      </c>
+      <c r="O214" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="P214" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q214" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="R214" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S214" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U214" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="V214" s="2">
+        <v>14.913563</v>
+      </c>
+      <c r="W214" s="2">
+        <v>-86.303442000000004</v>
+      </c>
+    </row>
+    <row r="215" spans="1:23">
+      <c r="A215" s="1">
+        <v>50056</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D215" s="1">
+        <v>3</v>
+      </c>
+      <c r="E215" s="1">
+        <v>15</v>
+      </c>
+      <c r="F215" s="1">
+        <v>15</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I215" s="1">
+        <v>9</v>
+      </c>
+      <c r="J215" s="1">
+        <v>1509</v>
+      </c>
+      <c r="K215" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M215" s="1">
+        <v>1</v>
+      </c>
+      <c r="N215" s="1">
+        <v>150101</v>
+      </c>
+      <c r="O215" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P215" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q215" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="R215" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S215" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U215" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="V215" s="2">
+        <v>14.664275399999999</v>
+      </c>
+      <c r="W215" s="2">
+        <v>-86.215106700000007</v>
+      </c>
+    </row>
+    <row r="216" spans="1:23">
+      <c r="A216" s="1">
+        <v>50057</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D216" s="1">
+        <v>3</v>
+      </c>
+      <c r="E216" s="1">
+        <v>15</v>
+      </c>
+      <c r="F216" s="1">
+        <v>15</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I216" s="1">
+        <v>9</v>
+      </c>
+      <c r="J216" s="1">
+        <v>1509</v>
+      </c>
+      <c r="K216" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M216" s="1">
+        <v>1</v>
+      </c>
+      <c r="N216" s="1">
+        <v>150101</v>
+      </c>
+      <c r="O216" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P216" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q216" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="R216" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S216" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U216" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="V216" s="2">
+        <v>14.6702645</v>
+      </c>
+      <c r="W216" s="2">
+        <v>-86.2208574</v>
+      </c>
+    </row>
+    <row r="217" spans="1:23">
+      <c r="A217" s="1">
+        <v>50058</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D217" s="1">
+        <v>3</v>
+      </c>
+      <c r="E217" s="1">
+        <v>15</v>
+      </c>
+      <c r="F217" s="1">
+        <v>15</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I217" s="1">
+        <v>9</v>
+      </c>
+      <c r="J217" s="1">
+        <v>1509</v>
+      </c>
+      <c r="K217" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M217" s="1">
+        <v>1</v>
+      </c>
+      <c r="N217" s="1">
+        <v>150101</v>
+      </c>
+      <c r="O217" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P217" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q217" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="R217" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S217" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U217" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="V217" s="2">
+        <v>14.658246500000001</v>
+      </c>
+      <c r="W217" s="2">
+        <v>-86.215311900000003</v>
+      </c>
+    </row>
+    <row r="218" spans="1:23">
+      <c r="A218" s="1">
+        <v>50059</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D218" s="1">
+        <v>3</v>
+      </c>
+      <c r="E218" s="1">
+        <v>15</v>
+      </c>
+      <c r="F218" s="1">
+        <v>15</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I218" s="1">
+        <v>9</v>
+      </c>
+      <c r="J218" s="1">
+        <v>1509</v>
+      </c>
+      <c r="K218" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M218" s="1">
+        <v>1</v>
+      </c>
+      <c r="N218" s="1">
+        <v>150101</v>
+      </c>
+      <c r="O218" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P218" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q218" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="R218" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S218" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U218" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="V218" s="2">
+        <v>14.6697212</v>
+      </c>
+      <c r="W218" s="2">
+        <v>-86.222785900000005</v>
+      </c>
+    </row>
+    <row r="219" spans="1:23">
+      <c r="A219" s="1">
+        <v>50060</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D219" s="1">
+        <v>3</v>
+      </c>
+      <c r="E219" s="1">
+        <v>15</v>
+      </c>
+      <c r="F219" s="1">
+        <v>15</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I219" s="1">
+        <v>9</v>
+      </c>
+      <c r="J219" s="1">
+        <v>1509</v>
+      </c>
+      <c r="K219" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M219" s="1">
+        <v>1</v>
+      </c>
+      <c r="N219" s="1">
+        <v>150101</v>
+      </c>
+      <c r="O219" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P219" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q219" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="R219" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S219" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U219" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V219" s="2">
+        <v>14.666747300000001</v>
+      </c>
+      <c r="W219" s="2">
+        <v>-86.225702100000007</v>
+      </c>
+    </row>
+    <row r="220" spans="1:23">
+      <c r="A220" s="1">
+        <v>50061</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D220" s="1">
+        <v>3</v>
+      </c>
+      <c r="E220" s="1">
+        <v>15</v>
+      </c>
+      <c r="F220" s="1">
+        <v>15</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I220" s="1">
+        <v>9</v>
+      </c>
+      <c r="J220" s="1">
+        <v>1509</v>
+      </c>
+      <c r="K220" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M220" s="1">
+        <v>1</v>
+      </c>
+      <c r="N220" s="1">
+        <v>150101</v>
+      </c>
+      <c r="O220" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P220" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q220" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="R220" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S220" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U220" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="V220" s="2">
+        <v>14.6667962</v>
+      </c>
+      <c r="W220" s="2">
+        <v>-86.225291299999995</v>
+      </c>
+    </row>
+    <row r="221" spans="1:23">
+      <c r="A221" s="1">
+        <v>50062</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D221" s="1">
+        <v>3</v>
+      </c>
+      <c r="E221" s="1">
+        <v>15</v>
+      </c>
+      <c r="F221" s="1">
+        <v>15</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I221" s="1">
+        <v>9</v>
+      </c>
+      <c r="J221" s="1">
+        <v>1509</v>
+      </c>
+      <c r="K221" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M221" s="1">
+        <v>1</v>
+      </c>
+      <c r="N221" s="1">
+        <v>150101</v>
+      </c>
+      <c r="O221" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P221" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q221" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="R221" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S221" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U221" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="V221" s="2">
+        <v>14.6669065</v>
+      </c>
+      <c r="W221" s="2">
+        <v>-86.226855099999995</v>
+      </c>
+    </row>
+    <row r="222" spans="1:23">
+      <c r="A222" s="1">
+        <v>50063</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D222" s="1">
+        <v>3</v>
+      </c>
+      <c r="E222" s="1">
+        <v>15</v>
+      </c>
+      <c r="F222" s="1">
+        <v>15</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I222" s="1">
+        <v>9</v>
+      </c>
+      <c r="J222" s="1">
+        <v>1509</v>
+      </c>
+      <c r="K222" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M222" s="1">
+        <v>1</v>
+      </c>
+      <c r="N222" s="1">
+        <v>150101</v>
+      </c>
+      <c r="O222" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P222" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q222" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="R222" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S222" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U222" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="V222" s="2">
+        <v>14.671393200000001</v>
+      </c>
+      <c r="W222" s="2">
+        <v>-86.219501500000007</v>
+      </c>
+    </row>
+    <row r="223" spans="1:23">
+      <c r="A223" s="1">
+        <v>50064</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D223" s="1">
+        <v>3</v>
+      </c>
+      <c r="E223" s="1">
+        <v>15</v>
+      </c>
+      <c r="F223" s="1">
+        <v>15</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I223" s="1">
+        <v>9</v>
+      </c>
+      <c r="J223" s="1">
+        <v>1509</v>
+      </c>
+      <c r="K223" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L223" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M223" s="1">
+        <v>1</v>
+      </c>
+      <c r="N223" s="1">
+        <v>150101</v>
+      </c>
+      <c r="O223" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P223" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q223" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="R223" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S223" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U223" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="V223" s="2">
+        <v>14.668580499999999</v>
+      </c>
+      <c r="W223" s="2">
+        <v>-86.217693999999995</v>
+      </c>
+    </row>
+    <row r="224" spans="1:23">
+      <c r="A224" s="1">
+        <v>50065</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D224" s="1">
+        <v>3</v>
+      </c>
+      <c r="E224" s="1">
+        <v>15</v>
+      </c>
+      <c r="F224" s="1">
+        <v>15</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I224" s="1">
+        <v>9</v>
+      </c>
+      <c r="J224" s="1">
+        <v>1509</v>
+      </c>
+      <c r="K224" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L224" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M224" s="1">
+        <v>1</v>
+      </c>
+      <c r="N224" s="1">
+        <v>150101</v>
+      </c>
+      <c r="O224" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P224" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q224" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="R224" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S224" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U224" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="V224" s="2">
+        <v>14.6666107</v>
+      </c>
+      <c r="W224" s="2">
+        <v>-86.225996800000004</v>
+      </c>
+    </row>
+    <row r="225" spans="1:23">
+      <c r="A225" s="1">
+        <v>50066</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D225" s="1">
+        <v>3</v>
+      </c>
+      <c r="E225" s="1">
+        <v>15</v>
+      </c>
+      <c r="F225" s="1">
+        <v>15</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I225" s="1">
+        <v>9</v>
+      </c>
+      <c r="J225" s="1">
+        <v>1509</v>
+      </c>
+      <c r="K225" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L225" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M225" s="1">
+        <v>1</v>
+      </c>
+      <c r="N225" s="1">
+        <v>150101</v>
+      </c>
+      <c r="O225" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P225" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q225" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="R225" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S225" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U225" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="V225" s="2">
+        <v>14.6675375</v>
+      </c>
+      <c r="W225" s="2">
+        <v>-86.2174646</v>
+      </c>
+    </row>
+    <row r="226" spans="1:23">
+      <c r="A226" s="1">
+        <v>50067</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D226" s="1">
+        <v>3</v>
+      </c>
+      <c r="E226" s="1">
+        <v>15</v>
+      </c>
+      <c r="F226" s="1">
+        <v>15</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I226" s="1">
+        <v>9</v>
+      </c>
+      <c r="J226" s="1">
+        <v>1509</v>
+      </c>
+      <c r="K226" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L226" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M226" s="1">
+        <v>1</v>
+      </c>
+      <c r="N226" s="1">
+        <v>150101</v>
+      </c>
+      <c r="O226" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P226" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q226" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="R226" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S226" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U226" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V226" s="2">
+        <v>14.665284099999999</v>
+      </c>
+      <c r="W226" s="2">
+        <v>-86.215462099999996</v>
+      </c>
+    </row>
+    <row r="227" spans="1:23">
+      <c r="A227" s="1">
+        <v>50068</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D227" s="1">
+        <v>3</v>
+      </c>
+      <c r="E227" s="1">
+        <v>15</v>
+      </c>
+      <c r="F227" s="1">
+        <v>15</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I227" s="1">
+        <v>9</v>
+      </c>
+      <c r="J227" s="1">
+        <v>1509</v>
+      </c>
+      <c r="K227" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L227" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M227" s="1">
+        <v>1</v>
+      </c>
+      <c r="N227" s="1">
+        <v>150101</v>
+      </c>
+      <c r="O227" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P227" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q227" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="R227" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S227" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U227" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="V227" s="2">
+        <v>14.666357100000001</v>
+      </c>
+      <c r="W227" s="2">
+        <v>-86.217201000000003</v>
+      </c>
+    </row>
+    <row r="228" spans="1:23">
+      <c r="A228" s="1">
+        <v>50069</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D228" s="1">
+        <v>3</v>
+      </c>
+      <c r="E228" s="1">
+        <v>15</v>
+      </c>
+      <c r="F228" s="1">
+        <v>15</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I228" s="1">
+        <v>9</v>
+      </c>
+      <c r="J228" s="1">
+        <v>1509</v>
+      </c>
+      <c r="K228" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L228" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M228" s="1">
+        <v>1</v>
+      </c>
+      <c r="N228" s="1">
+        <v>150101</v>
+      </c>
+      <c r="O228" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P228" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q228" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="R228" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S228" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U228" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="V228" s="2">
+        <v>14.671502200000001</v>
+      </c>
+      <c r="W228" s="2">
+        <v>-86.221389400000007</v>
+      </c>
+    </row>
+    <row r="229" spans="1:23">
+      <c r="A229" s="1">
+        <v>50070</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D229" s="1">
+        <v>3</v>
+      </c>
+      <c r="E229" s="1">
+        <v>15</v>
+      </c>
+      <c r="F229" s="1">
+        <v>15</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I229" s="1">
+        <v>9</v>
+      </c>
+      <c r="J229" s="1">
+        <v>1509</v>
+      </c>
+      <c r="K229" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L229" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M229" s="1">
+        <v>1</v>
+      </c>
+      <c r="N229" s="1">
+        <v>150101</v>
+      </c>
+      <c r="O229" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P229" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q229" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="R229" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S229" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U229" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="V229" s="2">
+        <v>14.669881500000001</v>
+      </c>
+      <c r="W229" s="2">
+        <v>-86.219860199999999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:23">
+      <c r="A230" s="1">
+        <v>50071</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D230" s="1">
+        <v>3</v>
+      </c>
+      <c r="E230" s="1">
+        <v>15</v>
+      </c>
+      <c r="F230" s="1">
+        <v>15</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I230" s="1">
+        <v>9</v>
+      </c>
+      <c r="J230" s="1">
+        <v>1509</v>
+      </c>
+      <c r="K230" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L230" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M230" s="1">
+        <v>1</v>
+      </c>
+      <c r="N230" s="1">
+        <v>150101</v>
+      </c>
+      <c r="O230" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P230" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q230" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="R230" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S230" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U230" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="V230" s="2">
+        <v>14.6712817</v>
+      </c>
+      <c r="W230" s="2">
+        <v>-86.2198408</v>
+      </c>
+    </row>
+    <row r="231" spans="1:23">
+      <c r="A231" s="1">
+        <v>50072</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D231" s="1">
+        <v>3</v>
+      </c>
+      <c r="E231" s="1">
+        <v>15</v>
+      </c>
+      <c r="F231" s="1">
+        <v>15</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I231" s="1">
+        <v>9</v>
+      </c>
+      <c r="J231" s="1">
+        <v>1509</v>
+      </c>
+      <c r="K231" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L231" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M231" s="1">
+        <v>1</v>
+      </c>
+      <c r="N231" s="1">
+        <v>150101</v>
+      </c>
+      <c r="O231" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P231" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q231" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="R231" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S231" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U231" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V231" s="2">
+        <v>14.670398499999999</v>
+      </c>
+      <c r="W231" s="2">
+        <v>-86.218262300000006</v>
+      </c>
+    </row>
+    <row r="232" spans="1:23">
+      <c r="A232" s="1">
+        <v>50073</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D232" s="1">
+        <v>3</v>
+      </c>
+      <c r="E232" s="1">
+        <v>15</v>
+      </c>
+      <c r="F232" s="1">
+        <v>15</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I232" s="1">
+        <v>17</v>
+      </c>
+      <c r="J232" s="1">
+        <v>1517</v>
+      </c>
+      <c r="K232" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="L232" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M232" s="1">
+        <v>1</v>
+      </c>
+      <c r="N232" s="1">
+        <v>151701</v>
+      </c>
+      <c r="O232" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="P232" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q232" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="R232" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S232" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U232" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V232" s="2">
+        <v>15.213129800000001</v>
+      </c>
+      <c r="W232" s="2">
+        <v>-85.771611500000006</v>
+      </c>
+    </row>
+    <row r="233" spans="1:23">
+      <c r="A233" s="1">
+        <v>50074</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D233" s="1">
+        <v>3</v>
+      </c>
+      <c r="E233" s="1">
+        <v>15</v>
+      </c>
+      <c r="F233" s="1">
+        <v>15</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I233" s="1">
+        <v>20</v>
+      </c>
+      <c r="J233" s="1">
+        <v>1520</v>
+      </c>
+      <c r="K233" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L233" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M233" s="1">
+        <v>1</v>
+      </c>
+      <c r="N233" s="1">
+        <v>152001</v>
+      </c>
+      <c r="O233" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="P233" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q233" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="R233" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S233" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U233" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V233" s="2">
+        <v>14.8238468</v>
+      </c>
+      <c r="W233" s="2">
+        <v>-85.930354199999996</v>
+      </c>
+    </row>
+    <row r="235" spans="1:23" ht="15">
+      <c r="S235" s="9"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U160">
